--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-13.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="996">
   <si>
     <t>League</t>
   </si>
@@ -2539,90 +2539,6 @@
     <t>LA Galaxy</t>
   </si>
   <si>
-    <t>33171892</t>
-  </si>
-  <si>
-    <t>33177153</t>
-  </si>
-  <si>
-    <t>33181334</t>
-  </si>
-  <si>
-    <t>33174876</t>
-  </si>
-  <si>
-    <t>33181333</t>
-  </si>
-  <si>
-    <t>33171890</t>
-  </si>
-  <si>
-    <t>33174098</t>
-  </si>
-  <si>
-    <t>33171889</t>
-  </si>
-  <si>
-    <t>33171886</t>
-  </si>
-  <si>
-    <t>33173491</t>
-  </si>
-  <si>
-    <t>33173498</t>
-  </si>
-  <si>
-    <t>33171943</t>
-  </si>
-  <si>
-    <t>33173982</t>
-  </si>
-  <si>
-    <t>33173503</t>
-  </si>
-  <si>
-    <t>33155670</t>
-  </si>
-  <si>
-    <t>33183760</t>
-  </si>
-  <si>
-    <t>33183725</t>
-  </si>
-  <si>
-    <t>33155666</t>
-  </si>
-  <si>
-    <t>33171992</t>
-  </si>
-  <si>
-    <t>33119349</t>
-  </si>
-  <si>
-    <t>33172003</t>
-  </si>
-  <si>
-    <t>33170782</t>
-  </si>
-  <si>
-    <t>33173867</t>
-  </si>
-  <si>
-    <t>33177115</t>
-  </si>
-  <si>
-    <t>33177370</t>
-  </si>
-  <si>
-    <t>33185441</t>
-  </si>
-  <si>
-    <t>33176294</t>
-  </si>
-  <si>
-    <t>33177176</t>
-  </si>
-  <si>
     <t>33157213</t>
   </si>
   <si>
@@ -2716,90 +2632,6 @@
     <t>33157258</t>
   </si>
   <si>
-    <t>1.227246474</t>
-  </si>
-  <si>
-    <t>1.227350216</t>
-  </si>
-  <si>
-    <t>1.227416973</t>
-  </si>
-  <si>
-    <t>1.227308291</t>
-  </si>
-  <si>
-    <t>1.227417153</t>
-  </si>
-  <si>
-    <t>1.227246564</t>
-  </si>
-  <si>
-    <t>1.227296153</t>
-  </si>
-  <si>
-    <t>1.227246654</t>
-  </si>
-  <si>
-    <t>1.227246746</t>
-  </si>
-  <si>
-    <t>1.227279887</t>
-  </si>
-  <si>
-    <t>1.227281059</t>
-  </si>
-  <si>
-    <t>1.227247130</t>
-  </si>
-  <si>
-    <t>1.227290422</t>
-  </si>
-  <si>
-    <t>1.227280369</t>
-  </si>
-  <si>
-    <t>1.226955524</t>
-  </si>
-  <si>
-    <t>1.227446599</t>
-  </si>
-  <si>
-    <t>1.227446779</t>
-  </si>
-  <si>
-    <t>1.226954794</t>
-  </si>
-  <si>
-    <t>1.227251029</t>
-  </si>
-  <si>
-    <t>1.226336994</t>
-  </si>
-  <si>
-    <t>1.227250558</t>
-  </si>
-  <si>
-    <t>1.227220455</t>
-  </si>
-  <si>
-    <t>1.227288138</t>
-  </si>
-  <si>
-    <t>1.227350306</t>
-  </si>
-  <si>
-    <t>1.227353554</t>
-  </si>
-  <si>
-    <t>1.227476708</t>
-  </si>
-  <si>
-    <t>1.227335799</t>
-  </si>
-  <si>
-    <t>1.227350396</t>
-  </si>
-  <si>
     <t>1.226979991</t>
   </si>
   <si>
@@ -2893,90 +2725,6 @@
     <t>1.226980426</t>
   </si>
   <si>
-    <t>1.227246519</t>
-  </si>
-  <si>
-    <t>1.227350261</t>
-  </si>
-  <si>
-    <t>1.227417018</t>
-  </si>
-  <si>
-    <t>1.227308336</t>
-  </si>
-  <si>
-    <t>1.227417198</t>
-  </si>
-  <si>
-    <t>1.227246609</t>
-  </si>
-  <si>
-    <t>1.227296198</t>
-  </si>
-  <si>
-    <t>1.227246699</t>
-  </si>
-  <si>
-    <t>1.227246791</t>
-  </si>
-  <si>
-    <t>1.227279932</t>
-  </si>
-  <si>
-    <t>1.227281104</t>
-  </si>
-  <si>
-    <t>1.227247175</t>
-  </si>
-  <si>
-    <t>1.227290432</t>
-  </si>
-  <si>
-    <t>1.227280414</t>
-  </si>
-  <si>
-    <t>1.226955508</t>
-  </si>
-  <si>
-    <t>1.227446644</t>
-  </si>
-  <si>
-    <t>1.227446824</t>
-  </si>
-  <si>
-    <t>1.226954778</t>
-  </si>
-  <si>
-    <t>1.227251039</t>
-  </si>
-  <si>
-    <t>1.226336978</t>
-  </si>
-  <si>
-    <t>1.227250603</t>
-  </si>
-  <si>
-    <t>1.227220465</t>
-  </si>
-  <si>
-    <t>1.227288148</t>
-  </si>
-  <si>
-    <t>1.227350351</t>
-  </si>
-  <si>
-    <t>1.227353599</t>
-  </si>
-  <si>
-    <t>1.227476753</t>
-  </si>
-  <si>
-    <t>1.227335844</t>
-  </si>
-  <si>
-    <t>1.227350441</t>
-  </si>
-  <si>
     <t>1.226980001</t>
   </si>
   <si>
@@ -3070,90 +2818,6 @@
     <t>1.226980436</t>
   </si>
   <si>
-    <t>1.227246558</t>
-  </si>
-  <si>
-    <t>1.227350300</t>
-  </si>
-  <si>
-    <t>1.227417057</t>
-  </si>
-  <si>
-    <t>1.227308375</t>
-  </si>
-  <si>
-    <t>1.227417237</t>
-  </si>
-  <si>
-    <t>1.227246648</t>
-  </si>
-  <si>
-    <t>1.227296237</t>
-  </si>
-  <si>
-    <t>1.227246738</t>
-  </si>
-  <si>
-    <t>1.227246830</t>
-  </si>
-  <si>
-    <t>1.227279971</t>
-  </si>
-  <si>
-    <t>1.227281143</t>
-  </si>
-  <si>
-    <t>1.227247214</t>
-  </si>
-  <si>
-    <t>1.227290421</t>
-  </si>
-  <si>
-    <t>1.227280453</t>
-  </si>
-  <si>
-    <t>1.226955523</t>
-  </si>
-  <si>
-    <t>1.227446683</t>
-  </si>
-  <si>
-    <t>1.227446863</t>
-  </si>
-  <si>
-    <t>1.226954793</t>
-  </si>
-  <si>
-    <t>1.227251028</t>
-  </si>
-  <si>
-    <t>1.226336993</t>
-  </si>
-  <si>
-    <t>1.227250642</t>
-  </si>
-  <si>
-    <t>1.227220454</t>
-  </si>
-  <si>
-    <t>1.227288137</t>
-  </si>
-  <si>
-    <t>1.227350390</t>
-  </si>
-  <si>
-    <t>1.227353638</t>
-  </si>
-  <si>
-    <t>1.227476792</t>
-  </si>
-  <si>
-    <t>1.227335883</t>
-  </si>
-  <si>
-    <t>1.227350480</t>
-  </si>
-  <si>
     <t>1.226979990</t>
   </si>
   <si>
@@ -3245,90 +2909,6 @@
   </si>
   <si>
     <t>1.226980425</t>
-  </si>
-  <si>
-    <t>1.227246483</t>
-  </si>
-  <si>
-    <t>1.227350225</t>
-  </si>
-  <si>
-    <t>1.227416982</t>
-  </si>
-  <si>
-    <t>1.227308300</t>
-  </si>
-  <si>
-    <t>1.227417162</t>
-  </si>
-  <si>
-    <t>1.227246573</t>
-  </si>
-  <si>
-    <t>1.227296162</t>
-  </si>
-  <si>
-    <t>1.227246663</t>
-  </si>
-  <si>
-    <t>1.227246755</t>
-  </si>
-  <si>
-    <t>1.227279896</t>
-  </si>
-  <si>
-    <t>1.227281068</t>
-  </si>
-  <si>
-    <t>1.227247139</t>
-  </si>
-  <si>
-    <t>1.227290431</t>
-  </si>
-  <si>
-    <t>1.227280378</t>
-  </si>
-  <si>
-    <t>1.226955533</t>
-  </si>
-  <si>
-    <t>1.227446608</t>
-  </si>
-  <si>
-    <t>1.227446788</t>
-  </si>
-  <si>
-    <t>1.226954803</t>
-  </si>
-  <si>
-    <t>1.227251038</t>
-  </si>
-  <si>
-    <t>1.226337003</t>
-  </si>
-  <si>
-    <t>1.227250567</t>
-  </si>
-  <si>
-    <t>1.227220464</t>
-  </si>
-  <si>
-    <t>1.227288147</t>
-  </si>
-  <si>
-    <t>1.227350315</t>
-  </si>
-  <si>
-    <t>1.227353563</t>
-  </si>
-  <si>
-    <t>1.227476717</t>
-  </si>
-  <si>
-    <t>1.227335808</t>
-  </si>
-  <si>
-    <t>1.227350405</t>
   </si>
   <si>
     <t>1.226980000</t>
@@ -55571,8 +55151,8 @@
       <c r="BE263">
         <v>1000</v>
       </c>
-      <c r="BF263" t="s">
-        <v>841</v>
+      <c r="BF263">
+        <v>33171892</v>
       </c>
       <c r="BG263">
         <v>5822815</v>
@@ -55583,17 +55163,17 @@
       <c r="BI263">
         <v>58805</v>
       </c>
-      <c r="BJ263" t="s">
-        <v>900</v>
-      </c>
-      <c r="BK263" t="s">
-        <v>959</v>
-      </c>
-      <c r="BL263" t="s">
-        <v>1018</v>
-      </c>
-      <c r="BM263" t="s">
-        <v>1077</v>
+      <c r="BJ263">
+        <v>1.227246474</v>
+      </c>
+      <c r="BK263">
+        <v>1.227246519</v>
+      </c>
+      <c r="BL263">
+        <v>1.227246558</v>
+      </c>
+      <c r="BM263">
+        <v>1.227246483</v>
       </c>
     </row>
     <row r="264" spans="1:65">
@@ -55768,8 +55348,8 @@
       <c r="BE264">
         <v>1000</v>
       </c>
-      <c r="BF264" t="s">
-        <v>842</v>
+      <c r="BF264">
+        <v>33177153</v>
       </c>
       <c r="BG264">
         <v>6607289</v>
@@ -55780,17 +55360,17 @@
       <c r="BI264">
         <v>58805</v>
       </c>
-      <c r="BJ264" t="s">
-        <v>901</v>
-      </c>
-      <c r="BK264" t="s">
-        <v>960</v>
-      </c>
-      <c r="BL264" t="s">
-        <v>1019</v>
-      </c>
-      <c r="BM264" t="s">
-        <v>1078</v>
+      <c r="BJ264">
+        <v>1.227350216</v>
+      </c>
+      <c r="BK264">
+        <v>1.227350261</v>
+      </c>
+      <c r="BL264">
+        <v>1.2273503</v>
+      </c>
+      <c r="BM264">
+        <v>1.227350225</v>
       </c>
     </row>
     <row r="265" spans="1:65">
@@ -55965,8 +55545,8 @@
       <c r="BE265">
         <v>1000</v>
       </c>
-      <c r="BF265" t="s">
-        <v>843</v>
+      <c r="BF265">
+        <v>33181334</v>
       </c>
       <c r="BG265">
         <v>9359756</v>
@@ -55977,17 +55557,17 @@
       <c r="BI265">
         <v>58805</v>
       </c>
-      <c r="BJ265" t="s">
-        <v>902</v>
-      </c>
-      <c r="BK265" t="s">
-        <v>961</v>
-      </c>
-      <c r="BL265" t="s">
-        <v>1020</v>
-      </c>
-      <c r="BM265" t="s">
-        <v>1079</v>
+      <c r="BJ265">
+        <v>1.227416973</v>
+      </c>
+      <c r="BK265">
+        <v>1.227417018</v>
+      </c>
+      <c r="BL265">
+        <v>1.227417057</v>
+      </c>
+      <c r="BM265">
+        <v>1.227416982</v>
       </c>
     </row>
     <row r="266" spans="1:65">
@@ -56162,8 +55742,8 @@
       <c r="BE266">
         <v>1000</v>
       </c>
-      <c r="BF266" t="s">
-        <v>844</v>
+      <c r="BF266">
+        <v>33174876</v>
       </c>
       <c r="BG266">
         <v>8225986</v>
@@ -56174,17 +55754,17 @@
       <c r="BI266">
         <v>58805</v>
       </c>
-      <c r="BJ266" t="s">
-        <v>903</v>
-      </c>
-      <c r="BK266" t="s">
-        <v>962</v>
-      </c>
-      <c r="BL266" t="s">
-        <v>1021</v>
-      </c>
-      <c r="BM266" t="s">
-        <v>1080</v>
+      <c r="BJ266">
+        <v>1.227308291</v>
+      </c>
+      <c r="BK266">
+        <v>1.227308336</v>
+      </c>
+      <c r="BL266">
+        <v>1.227308375</v>
+      </c>
+      <c r="BM266">
+        <v>1.2273083</v>
       </c>
     </row>
     <row r="267" spans="1:65">
@@ -56359,8 +55939,8 @@
       <c r="BE267">
         <v>1000</v>
       </c>
-      <c r="BF267" t="s">
-        <v>845</v>
+      <c r="BF267">
+        <v>33181333</v>
       </c>
       <c r="BG267">
         <v>7602486</v>
@@ -56371,17 +55951,17 @@
       <c r="BI267">
         <v>58805</v>
       </c>
-      <c r="BJ267" t="s">
-        <v>904</v>
-      </c>
-      <c r="BK267" t="s">
-        <v>963</v>
-      </c>
-      <c r="BL267" t="s">
-        <v>1022</v>
-      </c>
-      <c r="BM267" t="s">
-        <v>1081</v>
+      <c r="BJ267">
+        <v>1.227417153</v>
+      </c>
+      <c r="BK267">
+        <v>1.227417198</v>
+      </c>
+      <c r="BL267">
+        <v>1.227417237</v>
+      </c>
+      <c r="BM267">
+        <v>1.227417162</v>
       </c>
     </row>
     <row r="268" spans="1:65">
@@ -56556,8 +56136,8 @@
       <c r="BE268">
         <v>850</v>
       </c>
-      <c r="BF268" t="s">
-        <v>846</v>
+      <c r="BF268">
+        <v>33171890</v>
       </c>
       <c r="BG268">
         <v>1308816</v>
@@ -56568,17 +56148,17 @@
       <c r="BI268">
         <v>58805</v>
       </c>
-      <c r="BJ268" t="s">
-        <v>905</v>
-      </c>
-      <c r="BK268" t="s">
-        <v>964</v>
-      </c>
-      <c r="BL268" t="s">
-        <v>1023</v>
-      </c>
-      <c r="BM268" t="s">
-        <v>1082</v>
+      <c r="BJ268">
+        <v>1.227246564</v>
+      </c>
+      <c r="BK268">
+        <v>1.227246609</v>
+      </c>
+      <c r="BL268">
+        <v>1.227246648</v>
+      </c>
+      <c r="BM268">
+        <v>1.227246573</v>
       </c>
     </row>
     <row r="269" spans="1:65">
@@ -56753,8 +56333,8 @@
       <c r="BE269">
         <v>1000</v>
       </c>
-      <c r="BF269" t="s">
-        <v>847</v>
+      <c r="BF269">
+        <v>33174098</v>
       </c>
       <c r="BG269">
         <v>5876552</v>
@@ -56765,17 +56345,17 @@
       <c r="BI269">
         <v>58805</v>
       </c>
-      <c r="BJ269" t="s">
-        <v>906</v>
-      </c>
-      <c r="BK269" t="s">
-        <v>965</v>
-      </c>
-      <c r="BL269" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BM269" t="s">
-        <v>1083</v>
+      <c r="BJ269">
+        <v>1.227296153</v>
+      </c>
+      <c r="BK269">
+        <v>1.227296198</v>
+      </c>
+      <c r="BL269">
+        <v>1.227296237</v>
+      </c>
+      <c r="BM269">
+        <v>1.227296162</v>
       </c>
     </row>
     <row r="270" spans="1:65">
@@ -56950,8 +56530,8 @@
       <c r="BE270">
         <v>1000</v>
       </c>
-      <c r="BF270" t="s">
-        <v>848</v>
+      <c r="BF270">
+        <v>33171889</v>
       </c>
       <c r="BG270">
         <v>505713</v>
@@ -56962,17 +56542,17 @@
       <c r="BI270">
         <v>58805</v>
       </c>
-      <c r="BJ270" t="s">
-        <v>907</v>
-      </c>
-      <c r="BK270" t="s">
-        <v>966</v>
-      </c>
-      <c r="BL270" t="s">
-        <v>1025</v>
-      </c>
-      <c r="BM270" t="s">
-        <v>1084</v>
+      <c r="BJ270">
+        <v>1.227246654</v>
+      </c>
+      <c r="BK270">
+        <v>1.227246699</v>
+      </c>
+      <c r="BL270">
+        <v>1.227246738</v>
+      </c>
+      <c r="BM270">
+        <v>1.227246663</v>
       </c>
     </row>
     <row r="271" spans="1:65">
@@ -57147,8 +56727,8 @@
       <c r="BE271">
         <v>1000</v>
       </c>
-      <c r="BF271" t="s">
-        <v>849</v>
+      <c r="BF271">
+        <v>33171886</v>
       </c>
       <c r="BG271">
         <v>872714</v>
@@ -57159,17 +56739,17 @@
       <c r="BI271">
         <v>58805</v>
       </c>
-      <c r="BJ271" t="s">
-        <v>908</v>
-      </c>
-      <c r="BK271" t="s">
-        <v>967</v>
-      </c>
-      <c r="BL271" t="s">
-        <v>1026</v>
-      </c>
-      <c r="BM271" t="s">
-        <v>1085</v>
+      <c r="BJ271">
+        <v>1.227246746</v>
+      </c>
+      <c r="BK271">
+        <v>1.227246791</v>
+      </c>
+      <c r="BL271">
+        <v>1.22724683</v>
+      </c>
+      <c r="BM271">
+        <v>1.227246755</v>
       </c>
     </row>
     <row r="272" spans="1:65">
@@ -57344,8 +56924,8 @@
       <c r="BE272">
         <v>570</v>
       </c>
-      <c r="BF272" t="s">
-        <v>850</v>
+      <c r="BF272">
+        <v>33173491</v>
       </c>
       <c r="BG272">
         <v>44517</v>
@@ -57356,17 +56936,17 @@
       <c r="BI272">
         <v>58805</v>
       </c>
-      <c r="BJ272" t="s">
-        <v>909</v>
-      </c>
-      <c r="BK272" t="s">
-        <v>968</v>
-      </c>
-      <c r="BL272" t="s">
-        <v>1027</v>
-      </c>
-      <c r="BM272" t="s">
-        <v>1086</v>
+      <c r="BJ272">
+        <v>1.227279887</v>
+      </c>
+      <c r="BK272">
+        <v>1.227279932</v>
+      </c>
+      <c r="BL272">
+        <v>1.227279971</v>
+      </c>
+      <c r="BM272">
+        <v>1.227279896</v>
       </c>
     </row>
     <row r="273" spans="1:65">
@@ -57541,8 +57121,8 @@
       <c r="BE273">
         <v>1000</v>
       </c>
-      <c r="BF273" t="s">
-        <v>851</v>
+      <c r="BF273">
+        <v>33173498</v>
       </c>
       <c r="BG273">
         <v>2487034</v>
@@ -57553,17 +57133,17 @@
       <c r="BI273">
         <v>58805</v>
       </c>
-      <c r="BJ273" t="s">
-        <v>910</v>
-      </c>
-      <c r="BK273" t="s">
-        <v>969</v>
-      </c>
-      <c r="BL273" t="s">
-        <v>1028</v>
-      </c>
-      <c r="BM273" t="s">
-        <v>1087</v>
+      <c r="BJ273">
+        <v>1.227281059</v>
+      </c>
+      <c r="BK273">
+        <v>1.227281104</v>
+      </c>
+      <c r="BL273">
+        <v>1.227281143</v>
+      </c>
+      <c r="BM273">
+        <v>1.227281068</v>
       </c>
     </row>
     <row r="274" spans="1:65">
@@ -57738,8 +57318,8 @@
       <c r="BE274">
         <v>1000</v>
       </c>
-      <c r="BF274" t="s">
-        <v>852</v>
+      <c r="BF274">
+        <v>33171943</v>
       </c>
       <c r="BG274">
         <v>184330</v>
@@ -57750,17 +57330,17 @@
       <c r="BI274">
         <v>58805</v>
       </c>
-      <c r="BJ274" t="s">
-        <v>911</v>
-      </c>
-      <c r="BK274" t="s">
-        <v>970</v>
-      </c>
-      <c r="BL274" t="s">
-        <v>1029</v>
-      </c>
-      <c r="BM274" t="s">
-        <v>1088</v>
+      <c r="BJ274">
+        <v>1.22724713</v>
+      </c>
+      <c r="BK274">
+        <v>1.227247175</v>
+      </c>
+      <c r="BL274">
+        <v>1.227247214</v>
+      </c>
+      <c r="BM274">
+        <v>1.227247139</v>
       </c>
     </row>
     <row r="275" spans="1:65">
@@ -57935,8 +57515,8 @@
       <c r="BE275">
         <v>540</v>
       </c>
-      <c r="BF275" t="s">
-        <v>853</v>
+      <c r="BF275">
+        <v>33173982</v>
       </c>
       <c r="BG275">
         <v>6392</v>
@@ -57947,17 +57527,17 @@
       <c r="BI275">
         <v>58805</v>
       </c>
-      <c r="BJ275" t="s">
-        <v>912</v>
-      </c>
-      <c r="BK275" t="s">
-        <v>971</v>
-      </c>
-      <c r="BL275" t="s">
-        <v>1030</v>
-      </c>
-      <c r="BM275" t="s">
-        <v>1089</v>
+      <c r="BJ275">
+        <v>1.227290422</v>
+      </c>
+      <c r="BK275">
+        <v>1.227290432</v>
+      </c>
+      <c r="BL275">
+        <v>1.227290421</v>
+      </c>
+      <c r="BM275">
+        <v>1.227290431</v>
       </c>
     </row>
     <row r="276" spans="1:65">
@@ -58132,8 +57712,8 @@
       <c r="BE276">
         <v>850</v>
       </c>
-      <c r="BF276" t="s">
-        <v>854</v>
+      <c r="BF276">
+        <v>33173503</v>
       </c>
       <c r="BG276">
         <v>14072</v>
@@ -58144,17 +57724,17 @@
       <c r="BI276">
         <v>58805</v>
       </c>
-      <c r="BJ276" t="s">
-        <v>913</v>
-      </c>
-      <c r="BK276" t="s">
-        <v>972</v>
-      </c>
-      <c r="BL276" t="s">
-        <v>1031</v>
-      </c>
-      <c r="BM276" t="s">
-        <v>1090</v>
+      <c r="BJ276">
+        <v>1.227280369</v>
+      </c>
+      <c r="BK276">
+        <v>1.227280414</v>
+      </c>
+      <c r="BL276">
+        <v>1.227280453</v>
+      </c>
+      <c r="BM276">
+        <v>1.227280378</v>
       </c>
     </row>
     <row r="277" spans="1:65">
@@ -58329,8 +57909,8 @@
       <c r="BE277">
         <v>1000</v>
       </c>
-      <c r="BF277" t="s">
-        <v>855</v>
+      <c r="BF277">
+        <v>33155670</v>
       </c>
       <c r="BG277">
         <v>199545</v>
@@ -58341,17 +57921,17 @@
       <c r="BI277">
         <v>58805</v>
       </c>
-      <c r="BJ277" t="s">
-        <v>914</v>
-      </c>
-      <c r="BK277" t="s">
-        <v>973</v>
-      </c>
-      <c r="BL277" t="s">
-        <v>1032</v>
-      </c>
-      <c r="BM277" t="s">
-        <v>1091</v>
+      <c r="BJ277">
+        <v>1.226955524</v>
+      </c>
+      <c r="BK277">
+        <v>1.226955508</v>
+      </c>
+      <c r="BL277">
+        <v>1.226955523</v>
+      </c>
+      <c r="BM277">
+        <v>1.226955533</v>
       </c>
     </row>
     <row r="278" spans="1:65">
@@ -58526,8 +58106,8 @@
       <c r="BE278">
         <v>1000</v>
       </c>
-      <c r="BF278" t="s">
-        <v>856</v>
+      <c r="BF278">
+        <v>33183760</v>
       </c>
       <c r="BG278">
         <v>21855043</v>
@@ -58538,17 +58118,17 @@
       <c r="BI278">
         <v>58805</v>
       </c>
-      <c r="BJ278" t="s">
-        <v>915</v>
-      </c>
-      <c r="BK278" t="s">
-        <v>974</v>
-      </c>
-      <c r="BL278" t="s">
-        <v>1033</v>
-      </c>
-      <c r="BM278" t="s">
-        <v>1092</v>
+      <c r="BJ278">
+        <v>1.227446599</v>
+      </c>
+      <c r="BK278">
+        <v>1.227446644</v>
+      </c>
+      <c r="BL278">
+        <v>1.227446683</v>
+      </c>
+      <c r="BM278">
+        <v>1.227446608</v>
       </c>
     </row>
     <row r="279" spans="1:65">
@@ -58723,8 +58303,8 @@
       <c r="BE279">
         <v>1000</v>
       </c>
-      <c r="BF279" t="s">
-        <v>857</v>
+      <c r="BF279">
+        <v>33183725</v>
       </c>
       <c r="BG279">
         <v>522042</v>
@@ -58735,17 +58315,17 @@
       <c r="BI279">
         <v>58805</v>
       </c>
-      <c r="BJ279" t="s">
-        <v>916</v>
-      </c>
-      <c r="BK279" t="s">
-        <v>975</v>
-      </c>
-      <c r="BL279" t="s">
-        <v>1034</v>
-      </c>
-      <c r="BM279" t="s">
-        <v>1093</v>
+      <c r="BJ279">
+        <v>1.227446779</v>
+      </c>
+      <c r="BK279">
+        <v>1.227446824</v>
+      </c>
+      <c r="BL279">
+        <v>1.227446863</v>
+      </c>
+      <c r="BM279">
+        <v>1.227446788</v>
       </c>
     </row>
     <row r="280" spans="1:65">
@@ -58920,8 +58500,8 @@
       <c r="BE280">
         <v>990</v>
       </c>
-      <c r="BF280" t="s">
-        <v>858</v>
+      <c r="BF280">
+        <v>33155666</v>
       </c>
       <c r="BG280">
         <v>44799</v>
@@ -58932,17 +58512,17 @@
       <c r="BI280">
         <v>58805</v>
       </c>
-      <c r="BJ280" t="s">
-        <v>917</v>
-      </c>
-      <c r="BK280" t="s">
-        <v>976</v>
-      </c>
-      <c r="BL280" t="s">
-        <v>1035</v>
-      </c>
-      <c r="BM280" t="s">
-        <v>1094</v>
+      <c r="BJ280">
+        <v>1.226954794</v>
+      </c>
+      <c r="BK280">
+        <v>1.226954778</v>
+      </c>
+      <c r="BL280">
+        <v>1.226954793</v>
+      </c>
+      <c r="BM280">
+        <v>1.226954803</v>
       </c>
     </row>
     <row r="281" spans="1:65">
@@ -59117,8 +58697,8 @@
       <c r="BE281">
         <v>1000</v>
       </c>
-      <c r="BF281" t="s">
-        <v>859</v>
+      <c r="BF281">
+        <v>33171992</v>
       </c>
       <c r="BG281">
         <v>214865</v>
@@ -59129,17 +58709,17 @@
       <c r="BI281">
         <v>58805</v>
       </c>
-      <c r="BJ281" t="s">
-        <v>918</v>
-      </c>
-      <c r="BK281" t="s">
-        <v>977</v>
-      </c>
-      <c r="BL281" t="s">
-        <v>1036</v>
-      </c>
-      <c r="BM281" t="s">
-        <v>1095</v>
+      <c r="BJ281">
+        <v>1.227251029</v>
+      </c>
+      <c r="BK281">
+        <v>1.227251039</v>
+      </c>
+      <c r="BL281">
+        <v>1.227251028</v>
+      </c>
+      <c r="BM281">
+        <v>1.227251038</v>
       </c>
     </row>
     <row r="282" spans="1:65">
@@ -59314,8 +58894,8 @@
       <c r="BE282">
         <v>1000</v>
       </c>
-      <c r="BF282" t="s">
-        <v>860</v>
+      <c r="BF282">
+        <v>33119349</v>
       </c>
       <c r="BG282">
         <v>516259</v>
@@ -59326,17 +58906,17 @@
       <c r="BI282">
         <v>58805</v>
       </c>
-      <c r="BJ282" t="s">
-        <v>919</v>
-      </c>
-      <c r="BK282" t="s">
-        <v>978</v>
-      </c>
-      <c r="BL282" t="s">
-        <v>1037</v>
-      </c>
-      <c r="BM282" t="s">
-        <v>1096</v>
+      <c r="BJ282">
+        <v>1.226336994</v>
+      </c>
+      <c r="BK282">
+        <v>1.226336978</v>
+      </c>
+      <c r="BL282">
+        <v>1.226336993</v>
+      </c>
+      <c r="BM282">
+        <v>1.226337003</v>
       </c>
     </row>
     <row r="283" spans="1:65">
@@ -59511,8 +59091,8 @@
       <c r="BE283">
         <v>1000</v>
       </c>
-      <c r="BF283" t="s">
-        <v>861</v>
+      <c r="BF283">
+        <v>33172003</v>
       </c>
       <c r="BG283">
         <v>8220578</v>
@@ -59523,17 +59103,17 @@
       <c r="BI283">
         <v>58805</v>
       </c>
-      <c r="BJ283" t="s">
-        <v>920</v>
-      </c>
-      <c r="BK283" t="s">
-        <v>979</v>
-      </c>
-      <c r="BL283" t="s">
-        <v>1038</v>
-      </c>
-      <c r="BM283" t="s">
-        <v>1097</v>
+      <c r="BJ283">
+        <v>1.227250558</v>
+      </c>
+      <c r="BK283">
+        <v>1.227250603</v>
+      </c>
+      <c r="BL283">
+        <v>1.227250642</v>
+      </c>
+      <c r="BM283">
+        <v>1.227250567</v>
       </c>
     </row>
     <row r="284" spans="1:65">
@@ -59708,8 +59288,8 @@
       <c r="BE284">
         <v>1000</v>
       </c>
-      <c r="BF284" t="s">
-        <v>862</v>
+      <c r="BF284">
+        <v>33170782</v>
       </c>
       <c r="BG284">
         <v>4835124</v>
@@ -59720,17 +59300,17 @@
       <c r="BI284">
         <v>58805</v>
       </c>
-      <c r="BJ284" t="s">
-        <v>921</v>
-      </c>
-      <c r="BK284" t="s">
-        <v>980</v>
-      </c>
-      <c r="BL284" t="s">
-        <v>1039</v>
-      </c>
-      <c r="BM284" t="s">
-        <v>1098</v>
+      <c r="BJ284">
+        <v>1.227220455</v>
+      </c>
+      <c r="BK284">
+        <v>1.227220465</v>
+      </c>
+      <c r="BL284">
+        <v>1.227220454</v>
+      </c>
+      <c r="BM284">
+        <v>1.227220464</v>
       </c>
     </row>
     <row r="285" spans="1:65">
@@ -59905,8 +59485,8 @@
       <c r="BE285">
         <v>610</v>
       </c>
-      <c r="BF285" t="s">
-        <v>863</v>
+      <c r="BF285">
+        <v>33173867</v>
       </c>
       <c r="BG285">
         <v>8942696</v>
@@ -59917,17 +59497,17 @@
       <c r="BI285">
         <v>58805</v>
       </c>
-      <c r="BJ285" t="s">
-        <v>922</v>
-      </c>
-      <c r="BK285" t="s">
-        <v>981</v>
-      </c>
-      <c r="BL285" t="s">
-        <v>1040</v>
-      </c>
-      <c r="BM285" t="s">
-        <v>1099</v>
+      <c r="BJ285">
+        <v>1.227288138</v>
+      </c>
+      <c r="BK285">
+        <v>1.227288148</v>
+      </c>
+      <c r="BL285">
+        <v>1.227288137</v>
+      </c>
+      <c r="BM285">
+        <v>1.227288147</v>
       </c>
     </row>
     <row r="286" spans="1:65">
@@ -60102,8 +59682,8 @@
       <c r="BE286">
         <v>1000</v>
       </c>
-      <c r="BF286" t="s">
-        <v>864</v>
+      <c r="BF286">
+        <v>33177115</v>
       </c>
       <c r="BG286">
         <v>898396</v>
@@ -60114,17 +59694,17 @@
       <c r="BI286">
         <v>58805</v>
       </c>
-      <c r="BJ286" t="s">
-        <v>923</v>
-      </c>
-      <c r="BK286" t="s">
-        <v>982</v>
-      </c>
-      <c r="BL286" t="s">
-        <v>1041</v>
-      </c>
-      <c r="BM286" t="s">
-        <v>1100</v>
+      <c r="BJ286">
+        <v>1.227350306</v>
+      </c>
+      <c r="BK286">
+        <v>1.227350351</v>
+      </c>
+      <c r="BL286">
+        <v>1.22735039</v>
+      </c>
+      <c r="BM286">
+        <v>1.227350315</v>
       </c>
     </row>
     <row r="287" spans="1:65">
@@ -60299,8 +59879,8 @@
       <c r="BE287">
         <v>1000</v>
       </c>
-      <c r="BF287" t="s">
-        <v>865</v>
+      <c r="BF287">
+        <v>33177370</v>
       </c>
       <c r="BG287">
         <v>2451815</v>
@@ -60311,17 +59891,17 @@
       <c r="BI287">
         <v>58805</v>
       </c>
-      <c r="BJ287" t="s">
-        <v>924</v>
-      </c>
-      <c r="BK287" t="s">
-        <v>983</v>
-      </c>
-      <c r="BL287" t="s">
-        <v>1042</v>
-      </c>
-      <c r="BM287" t="s">
-        <v>1101</v>
+      <c r="BJ287">
+        <v>1.227353554</v>
+      </c>
+      <c r="BK287">
+        <v>1.227353599</v>
+      </c>
+      <c r="BL287">
+        <v>1.227353638</v>
+      </c>
+      <c r="BM287">
+        <v>1.227353563</v>
       </c>
     </row>
     <row r="288" spans="1:65">
@@ -60496,8 +60076,8 @@
       <c r="BE288">
         <v>1000</v>
       </c>
-      <c r="BF288" t="s">
-        <v>866</v>
+      <c r="BF288">
+        <v>33185441</v>
       </c>
       <c r="BG288">
         <v>10939060</v>
@@ -60508,17 +60088,17 @@
       <c r="BI288">
         <v>58805</v>
       </c>
-      <c r="BJ288" t="s">
-        <v>925</v>
-      </c>
-      <c r="BK288" t="s">
-        <v>984</v>
-      </c>
-      <c r="BL288" t="s">
-        <v>1043</v>
-      </c>
-      <c r="BM288" t="s">
-        <v>1102</v>
+      <c r="BJ288">
+        <v>1.227476708</v>
+      </c>
+      <c r="BK288">
+        <v>1.227476753</v>
+      </c>
+      <c r="BL288">
+        <v>1.227476792</v>
+      </c>
+      <c r="BM288">
+        <v>1.227476717</v>
       </c>
     </row>
     <row r="289" spans="1:65">
@@ -60693,8 +60273,8 @@
       <c r="BE289">
         <v>1000</v>
       </c>
-      <c r="BF289" t="s">
-        <v>867</v>
+      <c r="BF289">
+        <v>33176294</v>
       </c>
       <c r="BG289">
         <v>6161547</v>
@@ -60705,17 +60285,17 @@
       <c r="BI289">
         <v>58805</v>
       </c>
-      <c r="BJ289" t="s">
-        <v>926</v>
-      </c>
-      <c r="BK289" t="s">
-        <v>985</v>
-      </c>
-      <c r="BL289" t="s">
-        <v>1044</v>
-      </c>
-      <c r="BM289" t="s">
-        <v>1103</v>
+      <c r="BJ289">
+        <v>1.227335799</v>
+      </c>
+      <c r="BK289">
+        <v>1.227335844</v>
+      </c>
+      <c r="BL289">
+        <v>1.227335883</v>
+      </c>
+      <c r="BM289">
+        <v>1.227335808</v>
       </c>
     </row>
     <row r="290" spans="1:65">
@@ -60890,8 +60470,8 @@
       <c r="BE290">
         <v>1000</v>
       </c>
-      <c r="BF290" t="s">
-        <v>868</v>
+      <c r="BF290">
+        <v>33177176</v>
       </c>
       <c r="BG290">
         <v>2329297</v>
@@ -60902,17 +60482,17 @@
       <c r="BI290">
         <v>58805</v>
       </c>
-      <c r="BJ290" t="s">
-        <v>927</v>
-      </c>
-      <c r="BK290" t="s">
-        <v>986</v>
-      </c>
-      <c r="BL290" t="s">
-        <v>1045</v>
-      </c>
-      <c r="BM290" t="s">
-        <v>1104</v>
+      <c r="BJ290">
+        <v>1.227350396</v>
+      </c>
+      <c r="BK290">
+        <v>1.227350441</v>
+      </c>
+      <c r="BL290">
+        <v>1.22735048</v>
+      </c>
+      <c r="BM290">
+        <v>1.227350405</v>
       </c>
     </row>
     <row r="291" spans="1:65">
@@ -60932,82 +60512,82 @@
         <v>810</v>
       </c>
       <c r="F291">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G291">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H291">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I291">
+        <v>2.34</v>
+      </c>
+      <c r="J291">
+        <v>3.75</v>
+      </c>
+      <c r="K291">
+        <v>3.85</v>
+      </c>
+      <c r="L291">
+        <v>2.36</v>
+      </c>
+      <c r="M291">
         <v>2.4</v>
       </c>
-      <c r="J291">
-        <v>3.85</v>
-      </c>
-      <c r="K291">
-        <v>3.95</v>
-      </c>
-      <c r="L291">
-        <v>2.44</v>
-      </c>
-      <c r="M291">
-        <v>2.52</v>
-      </c>
       <c r="N291">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="O291">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P291">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q291">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R291">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="S291">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="T291">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U291">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V291">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W291">
+        <v>13.5</v>
+      </c>
+      <c r="X291">
+        <v>15.5</v>
+      </c>
+      <c r="Y291">
+        <v>17</v>
+      </c>
+      <c r="Z291">
+        <v>25</v>
+      </c>
+      <c r="AA291">
+        <v>30</v>
+      </c>
+      <c r="AB291">
         <v>14.5</v>
       </c>
-      <c r="X291">
+      <c r="AC291">
         <v>16.5</v>
       </c>
-      <c r="Y291">
-        <v>17.5</v>
-      </c>
-      <c r="Z291">
-        <v>28</v>
-      </c>
-      <c r="AA291">
-        <v>32</v>
-      </c>
-      <c r="AB291">
-        <v>15</v>
-      </c>
-      <c r="AC291">
-        <v>17</v>
-      </c>
       <c r="AD291">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AE291">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF291">
         <v>10.5</v>
@@ -61016,7 +60596,7 @@
         <v>11.5</v>
       </c>
       <c r="AH291">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI291">
         <v>22</v>
@@ -61028,10 +60608,10 @@
         <v>24</v>
       </c>
       <c r="AL291">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM291">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN291">
         <v>14</v>
@@ -61040,55 +60620,55 @@
         <v>15</v>
       </c>
       <c r="AP291">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ291">
+        <v>30</v>
+      </c>
+      <c r="AR291">
+        <v>40</v>
+      </c>
+      <c r="AS291">
+        <v>55</v>
+      </c>
+      <c r="AT291">
         <v>29</v>
       </c>
-      <c r="AR291">
-        <v>26</v>
-      </c>
-      <c r="AS291">
-        <v>48</v>
-      </c>
-      <c r="AT291">
-        <v>26</v>
-      </c>
       <c r="AU291">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AV291">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AW291">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AX291">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AY291">
         <v>65</v>
       </c>
       <c r="AZ291">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA291">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="BB291">
         <v>12</v>
       </c>
       <c r="BC291">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD291">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE291">
         <v>980</v>
       </c>
       <c r="BF291" t="s">
-        <v>869</v>
+        <v>841</v>
       </c>
       <c r="BG291">
         <v>4004854</v>
@@ -61100,16 +60680,16 @@
         <v>58805</v>
       </c>
       <c r="BJ291" t="s">
-        <v>928</v>
+        <v>872</v>
       </c>
       <c r="BK291" t="s">
-        <v>987</v>
+        <v>903</v>
       </c>
       <c r="BL291" t="s">
-        <v>1046</v>
+        <v>934</v>
       </c>
       <c r="BM291" t="s">
-        <v>1105</v>
+        <v>965</v>
       </c>
     </row>
     <row r="292" spans="1:65">
@@ -61129,163 +60709,163 @@
         <v>811</v>
       </c>
       <c r="F292">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G292">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H292">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I292">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J292">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K292">
         <v>3.25</v>
       </c>
       <c r="L292">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="M292">
-        <v>1.61</v>
+        <v>3.15</v>
       </c>
       <c r="N292">
-        <v>2.62</v>
+        <v>1.47</v>
       </c>
       <c r="O292">
-        <v>2.94</v>
+        <v>3.95</v>
       </c>
       <c r="P292">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="Q292">
-        <v>2.32</v>
+        <v>3.15</v>
       </c>
       <c r="R292">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="S292">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T292">
-        <v>4.2</v>
+        <v>1.13</v>
       </c>
       <c r="U292">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="V292">
-        <v>4.7</v>
+        <v>1.13</v>
       </c>
       <c r="W292">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X292">
-        <v>21</v>
+        <v>1.13</v>
       </c>
       <c r="Y292">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z292">
-        <v>3.1</v>
+        <v>1.13</v>
       </c>
       <c r="AA292">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB292">
-        <v>6.6</v>
+        <v>1.13</v>
       </c>
       <c r="AC292">
         <v>8</v>
       </c>
       <c r="AD292">
-        <v>6.4</v>
+        <v>1.05</v>
       </c>
       <c r="AE292">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AF292">
-        <v>5.5</v>
+        <v>1.07</v>
       </c>
       <c r="AG292">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH292">
-        <v>3.35</v>
+        <v>1.13</v>
       </c>
       <c r="AI292">
         <v>1000</v>
       </c>
       <c r="AJ292">
-        <v>10.5</v>
+        <v>1.13</v>
       </c>
       <c r="AK292">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL292">
-        <v>10</v>
+        <v>1.13</v>
       </c>
       <c r="AM292">
         <v>13</v>
       </c>
       <c r="AN292">
-        <v>5.9</v>
+        <v>1.13</v>
       </c>
       <c r="AO292">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AP292">
-        <v>2.96</v>
+        <v>1.13</v>
       </c>
       <c r="AQ292">
         <v>1000</v>
       </c>
       <c r="AR292">
-        <v>6.2</v>
+        <v>1.13</v>
       </c>
       <c r="AS292">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AT292">
-        <v>6.2</v>
+        <v>1.13</v>
       </c>
       <c r="AU292">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AV292">
-        <v>3.2</v>
+        <v>1.13</v>
       </c>
       <c r="AW292">
         <v>1000</v>
       </c>
       <c r="AX292">
-        <v>2.6</v>
+        <v>1.13</v>
       </c>
       <c r="AY292">
         <v>1000</v>
       </c>
       <c r="AZ292">
-        <v>2.64</v>
+        <v>1.13</v>
       </c>
       <c r="BA292">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="BB292">
-        <v>2.58</v>
+        <v>1.13</v>
       </c>
       <c r="BC292">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="BD292">
-        <v>2.64</v>
+        <v>1.13</v>
       </c>
       <c r="BE292">
         <v>1000</v>
       </c>
       <c r="BF292" t="s">
-        <v>870</v>
+        <v>842</v>
       </c>
       <c r="BG292">
         <v>4908158</v>
@@ -61297,16 +60877,16 @@
         <v>58805</v>
       </c>
       <c r="BJ292" t="s">
-        <v>929</v>
+        <v>873</v>
       </c>
       <c r="BK292" t="s">
-        <v>988</v>
+        <v>904</v>
       </c>
       <c r="BL292" t="s">
-        <v>1047</v>
+        <v>935</v>
       </c>
       <c r="BM292" t="s">
-        <v>1106</v>
+        <v>966</v>
       </c>
     </row>
     <row r="293" spans="1:65">
@@ -61326,49 +60906,49 @@
         <v>812</v>
       </c>
       <c r="F293">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G293">
+        <v>2.32</v>
+      </c>
+      <c r="H293">
+        <v>3.35</v>
+      </c>
+      <c r="I293">
+        <v>3.9</v>
+      </c>
+      <c r="J293">
+        <v>3.35</v>
+      </c>
+      <c r="K293">
+        <v>3.8</v>
+      </c>
+      <c r="L293">
+        <v>2.02</v>
+      </c>
+      <c r="M293">
+        <v>2.06</v>
+      </c>
+      <c r="N293">
+        <v>1.94</v>
+      </c>
+      <c r="O293">
+        <v>1.98</v>
+      </c>
+      <c r="P293">
+        <v>1.5</v>
+      </c>
+      <c r="Q293">
         <v>2.3</v>
       </c>
-      <c r="H293">
-        <v>3.5</v>
-      </c>
-      <c r="I293">
-        <v>3.85</v>
-      </c>
-      <c r="J293">
-        <v>3.4</v>
-      </c>
-      <c r="K293">
-        <v>3.7</v>
-      </c>
-      <c r="L293">
-        <v>1.92</v>
-      </c>
-      <c r="M293">
-        <v>2.04</v>
-      </c>
-      <c r="N293">
-        <v>1.96</v>
-      </c>
-      <c r="O293">
-        <v>2.1</v>
-      </c>
-      <c r="P293">
-        <v>1.8</v>
-      </c>
-      <c r="Q293">
-        <v>1.98</v>
-      </c>
       <c r="R293">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="S293">
-        <v>2.26</v>
+        <v>3.15</v>
       </c>
       <c r="T293">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="U293">
         <v>14.5</v>
@@ -61377,19 +60957,19 @@
         <v>11.5</v>
       </c>
       <c r="W293">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X293">
-        <v>6.2</v>
+        <v>20</v>
       </c>
       <c r="Y293">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z293">
-        <v>7.2</v>
+        <v>1.51</v>
       </c>
       <c r="AA293">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB293">
         <v>8.6</v>
@@ -61398,91 +60978,91 @@
         <v>10.5</v>
       </c>
       <c r="AD293">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE293">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AF293">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG293">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH293">
-        <v>7</v>
+        <v>2.06</v>
       </c>
       <c r="AI293">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ293">
+        <v>11.5</v>
+      </c>
+      <c r="AK293">
+        <v>1000</v>
+      </c>
+      <c r="AL293">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM293">
         <v>12</v>
       </c>
-      <c r="AK293">
-        <v>15</v>
-      </c>
-      <c r="AL293">
-        <v>10</v>
-      </c>
-      <c r="AM293">
-        <v>12.5</v>
-      </c>
       <c r="AN293">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO293">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP293">
-        <v>7.2</v>
+        <v>1.51</v>
       </c>
       <c r="AQ293">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AR293">
-        <v>6.4</v>
+        <v>2.26</v>
       </c>
       <c r="AS293">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AT293">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU293">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AV293">
-        <v>6.8</v>
+        <v>2.26</v>
       </c>
       <c r="AW293">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AX293">
-        <v>7.6</v>
+        <v>1.25</v>
       </c>
       <c r="AY293">
         <v>240</v>
       </c>
       <c r="AZ293">
-        <v>5.6</v>
+        <v>1.17</v>
       </c>
       <c r="BA293">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB293">
-        <v>6.8</v>
+        <v>1.22</v>
       </c>
       <c r="BC293">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BD293">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="BE293">
-        <v>1000</v>
+        <v>910</v>
       </c>
       <c r="BF293" t="s">
-        <v>871</v>
+        <v>843</v>
       </c>
       <c r="BG293">
         <v>1388376</v>
@@ -61494,16 +61074,16 @@
         <v>58805</v>
       </c>
       <c r="BJ293" t="s">
-        <v>930</v>
+        <v>874</v>
       </c>
       <c r="BK293" t="s">
-        <v>989</v>
+        <v>905</v>
       </c>
       <c r="BL293" t="s">
-        <v>1048</v>
+        <v>936</v>
       </c>
       <c r="BM293" t="s">
-        <v>1107</v>
+        <v>967</v>
       </c>
     </row>
     <row r="294" spans="1:65">
@@ -61529,22 +61109,22 @@
         <v>1.9</v>
       </c>
       <c r="H294">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I294">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J294">
         <v>3.65</v>
       </c>
       <c r="K294">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L294">
         <v>1.79</v>
       </c>
       <c r="M294">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="N294">
         <v>2.18</v>
@@ -61553,19 +61133,19 @@
         <v>2.28</v>
       </c>
       <c r="P294">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q294">
         <v>2.1</v>
       </c>
       <c r="R294">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S294">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T294">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U294">
         <v>12</v>
@@ -61580,13 +61160,13 @@
         <v>30</v>
       </c>
       <c r="Y294">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z294">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AA294">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AB294">
         <v>7.4</v>
@@ -61607,13 +61187,13 @@
         <v>19.5</v>
       </c>
       <c r="AH294">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AI294">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ294">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK294">
         <v>10.5</v>
@@ -61640,7 +61220,7 @@
         <v>19</v>
       </c>
       <c r="AS294">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT294">
         <v>19.5</v>
@@ -61649,13 +61229,13 @@
         <v>21</v>
       </c>
       <c r="AV294">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AW294">
         <v>44</v>
       </c>
       <c r="AX294">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AY294">
         <v>140</v>
@@ -61664,22 +61244,22 @@
         <v>14.5</v>
       </c>
       <c r="BA294">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BB294">
         <v>55</v>
       </c>
       <c r="BC294">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BD294">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BE294">
         <v>1000</v>
       </c>
       <c r="BF294" t="s">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="BG294">
         <v>198137</v>
@@ -61691,16 +61271,16 @@
         <v>58805</v>
       </c>
       <c r="BJ294" t="s">
-        <v>931</v>
+        <v>875</v>
       </c>
       <c r="BK294" t="s">
-        <v>990</v>
+        <v>906</v>
       </c>
       <c r="BL294" t="s">
-        <v>1049</v>
+        <v>937</v>
       </c>
       <c r="BM294" t="s">
-        <v>1108</v>
+        <v>968</v>
       </c>
     </row>
     <row r="295" spans="1:65">
@@ -61720,46 +61300,46 @@
         <v>814</v>
       </c>
       <c r="F295">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G295">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H295">
         <v>4</v>
       </c>
       <c r="I295">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J295">
         <v>3.2</v>
       </c>
       <c r="K295">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L295">
         <v>1.59</v>
       </c>
       <c r="M295">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="N295">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="O295">
         <v>2.7</v>
       </c>
       <c r="P295">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="Q295">
-        <v>2.24</v>
+        <v>3.15</v>
       </c>
       <c r="R295">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="S295">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="T295">
         <v>8.199999999999999</v>
@@ -61771,19 +61351,19 @@
         <v>10.5</v>
       </c>
       <c r="W295">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X295">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y295">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z295">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AA295">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB295">
         <v>6.8</v>
@@ -61798,22 +61378,22 @@
         <v>7.2</v>
       </c>
       <c r="AF295">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG295">
         <v>18</v>
       </c>
       <c r="AH295">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI295">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ295">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK295">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL295">
         <v>10.5</v>
@@ -61825,25 +61405,25 @@
         <v>22</v>
       </c>
       <c r="AO295">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP295">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AQ295">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AR295">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS295">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT295">
         <v>26</v>
       </c>
       <c r="AU295">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV295">
         <v>50</v>
@@ -61852,31 +61432,31 @@
         <v>60</v>
       </c>
       <c r="AX295">
-        <v>100</v>
+        <v>18.5</v>
       </c>
       <c r="AY295">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AZ295">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA295">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB295">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="BC295">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BD295">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BE295">
         <v>1000</v>
       </c>
       <c r="BF295" t="s">
-        <v>873</v>
+        <v>845</v>
       </c>
       <c r="BG295">
         <v>356589</v>
@@ -61888,16 +61468,16 @@
         <v>58805</v>
       </c>
       <c r="BJ295" t="s">
-        <v>932</v>
+        <v>876</v>
       </c>
       <c r="BK295" t="s">
-        <v>991</v>
+        <v>907</v>
       </c>
       <c r="BL295" t="s">
-        <v>1050</v>
+        <v>938</v>
       </c>
       <c r="BM295" t="s">
-        <v>1109</v>
+        <v>969</v>
       </c>
     </row>
     <row r="296" spans="1:65">
@@ -61920,10 +61500,10 @@
         <v>2.18</v>
       </c>
       <c r="G296">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H296">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I296">
         <v>4.4</v>
@@ -61932,148 +61512,148 @@
         <v>3.1</v>
       </c>
       <c r="K296">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L296">
         <v>1.57</v>
       </c>
       <c r="M296">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="N296">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O296">
         <v>2.76</v>
       </c>
       <c r="P296">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="Q296">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="R296">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="S296">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="T296">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="U296">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="V296">
-        <v>9.4</v>
+        <v>2.56</v>
       </c>
       <c r="W296">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X296">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="Y296">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z296">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="AA296">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB296">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC296">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD296">
         <v>6.4</v>
       </c>
       <c r="AE296">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AF296">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG296">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH296">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="AI296">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ296">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK296">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL296">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM296">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN296">
         <v>20</v>
       </c>
       <c r="AO296">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP296">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="AQ296">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR296">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="AS296">
         <v>32</v>
       </c>
       <c r="AT296">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="AU296">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AV296">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="AW296">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX296">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="AY296">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ296">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="BA296">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="BB296">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="BC296">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD296">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="BE296">
         <v>1000</v>
       </c>
       <c r="BF296" t="s">
-        <v>874</v>
+        <v>846</v>
       </c>
       <c r="BG296">
         <v>194507</v>
@@ -62085,16 +61665,16 @@
         <v>58805</v>
       </c>
       <c r="BJ296" t="s">
-        <v>933</v>
+        <v>877</v>
       </c>
       <c r="BK296" t="s">
-        <v>992</v>
+        <v>908</v>
       </c>
       <c r="BL296" t="s">
-        <v>1051</v>
+        <v>939</v>
       </c>
       <c r="BM296" t="s">
-        <v>1110</v>
+        <v>970</v>
       </c>
     </row>
     <row r="297" spans="1:65">
@@ -62114,163 +61694,163 @@
         <v>816</v>
       </c>
       <c r="F297">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G297">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H297">
         <v>5.3</v>
       </c>
       <c r="I297">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="J297">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K297">
         <v>4.3</v>
       </c>
       <c r="L297">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="M297">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="N297">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O297">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P297">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="Q297">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="R297">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="S297">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T297">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="U297">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="V297">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="W297">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="X297">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="Y297">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z297">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="AA297">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB297">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="AC297">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD297">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="AE297">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AF297">
+        <v>1.01</v>
+      </c>
+      <c r="AG297">
+        <v>1000</v>
+      </c>
+      <c r="AH297">
+        <v>1.01</v>
+      </c>
+      <c r="AI297">
+        <v>1000</v>
+      </c>
+      <c r="AJ297">
+        <v>1.01</v>
+      </c>
+      <c r="AK297">
+        <v>1000</v>
+      </c>
+      <c r="AL297">
+        <v>1.01</v>
+      </c>
+      <c r="AM297">
+        <v>1000</v>
+      </c>
+      <c r="AN297">
+        <v>1.01</v>
+      </c>
+      <c r="AO297">
+        <v>1000</v>
+      </c>
+      <c r="AP297">
+        <v>1.01</v>
+      </c>
+      <c r="AQ297">
+        <v>1000</v>
+      </c>
+      <c r="AR297">
+        <v>1.01</v>
+      </c>
+      <c r="AS297">
+        <v>1000</v>
+      </c>
+      <c r="AT297">
+        <v>1.01</v>
+      </c>
+      <c r="AU297">
+        <v>1000</v>
+      </c>
+      <c r="AV297">
+        <v>1.01</v>
+      </c>
+      <c r="AW297">
+        <v>1000</v>
+      </c>
+      <c r="AX297">
+        <v>1.01</v>
+      </c>
+      <c r="AY297">
+        <v>1000</v>
+      </c>
+      <c r="AZ297">
+        <v>1.01</v>
+      </c>
+      <c r="BA297">
+        <v>1000</v>
+      </c>
+      <c r="BB297">
+        <v>1.01</v>
+      </c>
+      <c r="BC297">
+        <v>1000</v>
+      </c>
+      <c r="BD297">
         <v>18.5</v>
       </c>
-      <c r="AG297">
-        <v>27</v>
-      </c>
-      <c r="AH297">
-        <v>4.7</v>
-      </c>
-      <c r="AI297">
-        <v>95</v>
-      </c>
-      <c r="AJ297">
-        <v>8.4</v>
-      </c>
-      <c r="AK297">
-        <v>11.5</v>
-      </c>
-      <c r="AL297">
-        <v>3.55</v>
-      </c>
-      <c r="AM297">
-        <v>12.5</v>
-      </c>
-      <c r="AN297">
-        <v>4.2</v>
-      </c>
-      <c r="AO297">
-        <v>28</v>
-      </c>
-      <c r="AP297">
-        <v>4.7</v>
-      </c>
-      <c r="AQ297">
-        <v>110</v>
-      </c>
-      <c r="AR297">
-        <v>12.5</v>
-      </c>
-      <c r="AS297">
-        <v>21</v>
-      </c>
-      <c r="AT297">
-        <v>14</v>
-      </c>
-      <c r="AU297">
-        <v>23</v>
-      </c>
-      <c r="AV297">
-        <v>4.5</v>
-      </c>
-      <c r="AW297">
-        <v>48</v>
-      </c>
-      <c r="AX297">
-        <v>4.8</v>
-      </c>
-      <c r="AY297">
-        <v>170</v>
-      </c>
-      <c r="AZ297">
-        <v>2.64</v>
-      </c>
-      <c r="BA297">
-        <v>14</v>
-      </c>
-      <c r="BB297">
-        <v>3.15</v>
-      </c>
-      <c r="BC297">
-        <v>120</v>
-      </c>
-      <c r="BD297">
-        <v>3.25</v>
-      </c>
       <c r="BE297">
         <v>1000</v>
       </c>
       <c r="BF297" t="s">
-        <v>875</v>
+        <v>847</v>
       </c>
       <c r="BG297">
         <v>328699</v>
@@ -62282,16 +61862,16 @@
         <v>58805</v>
       </c>
       <c r="BJ297" t="s">
-        <v>934</v>
+        <v>878</v>
       </c>
       <c r="BK297" t="s">
-        <v>993</v>
+        <v>909</v>
       </c>
       <c r="BL297" t="s">
-        <v>1052</v>
+        <v>940</v>
       </c>
       <c r="BM297" t="s">
-        <v>1111</v>
+        <v>971</v>
       </c>
     </row>
     <row r="298" spans="1:65">
@@ -62320,154 +61900,154 @@
         <v>11</v>
       </c>
       <c r="I298">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="J298">
         <v>6.4</v>
       </c>
       <c r="K298">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L298">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="M298">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="N298">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="O298">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="P298">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Q298">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R298">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S298">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T298">
-        <v>4.7</v>
+        <v>19</v>
       </c>
       <c r="U298">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V298">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="W298">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X298">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Y298">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Z298">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="AA298">
         <v>1000</v>
       </c>
       <c r="AB298">
-        <v>3.75</v>
+        <v>7.2</v>
       </c>
       <c r="AC298">
+        <v>12</v>
+      </c>
+      <c r="AD298">
         <v>11.5</v>
       </c>
-      <c r="AD298">
-        <v>11</v>
-      </c>
       <c r="AE298">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF298">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="AG298">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH298">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AI298">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AJ298">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AK298">
         <v>9.4</v>
       </c>
       <c r="AL298">
-        <v>3.95</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM298">
         <v>13.5</v>
       </c>
       <c r="AN298">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="AO298">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP298">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="AQ298">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AR298">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AS298">
         <v>12</v>
       </c>
       <c r="AT298">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="AU298">
         <v>17</v>
       </c>
       <c r="AV298">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="AW298">
         <v>48</v>
       </c>
       <c r="AX298">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="AY298">
         <v>240</v>
       </c>
       <c r="AZ298">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BA298">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BB298">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="BC298">
         <v>1000</v>
       </c>
       <c r="BD298">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="BE298">
         <v>1000</v>
       </c>
       <c r="BF298" t="s">
-        <v>876</v>
+        <v>848</v>
       </c>
       <c r="BG298">
         <v>5839079</v>
@@ -62479,16 +62059,16 @@
         <v>58805</v>
       </c>
       <c r="BJ298" t="s">
-        <v>935</v>
+        <v>879</v>
       </c>
       <c r="BK298" t="s">
-        <v>994</v>
+        <v>910</v>
       </c>
       <c r="BL298" t="s">
-        <v>1053</v>
+        <v>941</v>
       </c>
       <c r="BM298" t="s">
-        <v>1112</v>
+        <v>972</v>
       </c>
     </row>
     <row r="299" spans="1:65">
@@ -62508,163 +62088,163 @@
         <v>818</v>
       </c>
       <c r="F299">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G299">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H299">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I299">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J299">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K299">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L299">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="M299">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="N299">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="O299">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P299">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="Q299">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="R299">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="S299">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="T299">
-        <v>5.4</v>
+        <v>12.5</v>
       </c>
       <c r="U299">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V299">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W299">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="X299">
-        <v>5.8</v>
+        <v>17.5</v>
       </c>
       <c r="Y299">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z299">
+        <v>1.7</v>
+      </c>
+      <c r="AA299">
+        <v>70</v>
+      </c>
+      <c r="AB299">
+        <v>9</v>
+      </c>
+      <c r="AC299">
+        <v>15</v>
+      </c>
+      <c r="AD299">
         <v>6.4</v>
       </c>
-      <c r="AA299">
-        <v>65</v>
-      </c>
-      <c r="AB299">
-        <v>11</v>
-      </c>
-      <c r="AC299">
-        <v>12.5</v>
-      </c>
-      <c r="AD299">
-        <v>8</v>
-      </c>
       <c r="AE299">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AF299">
+        <v>10.5</v>
+      </c>
+      <c r="AG299">
+        <v>16.5</v>
+      </c>
+      <c r="AH299">
+        <v>4.1</v>
+      </c>
+      <c r="AI299">
+        <v>42</v>
+      </c>
+      <c r="AJ299">
+        <v>11.5</v>
+      </c>
+      <c r="AK299">
+        <v>19</v>
+      </c>
+      <c r="AL299">
+        <v>8.4</v>
+      </c>
+      <c r="AM299">
+        <v>13.5</v>
+      </c>
+      <c r="AN299">
         <v>12</v>
       </c>
-      <c r="AG299">
-        <v>14.5</v>
-      </c>
-      <c r="AH299">
-        <v>6</v>
-      </c>
-      <c r="AI299">
-        <v>40</v>
-      </c>
-      <c r="AJ299">
-        <v>14</v>
-      </c>
-      <c r="AK299">
-        <v>16</v>
-      </c>
-      <c r="AL299">
-        <v>10</v>
-      </c>
-      <c r="AM299">
-        <v>11.5</v>
-      </c>
-      <c r="AN299">
-        <v>14.5</v>
-      </c>
       <c r="AO299">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP299">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="AQ299">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AR299">
-        <v>5.9</v>
+        <v>21</v>
       </c>
       <c r="AS299">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AT299">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AU299">
         <v>26</v>
       </c>
       <c r="AV299">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="AW299">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AX299">
-        <v>6.6</v>
+        <v>1.57</v>
       </c>
       <c r="AY299">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AZ299">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="BA299">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB299">
-        <v>5.8</v>
+        <v>1.43</v>
       </c>
       <c r="BC299">
         <v>30</v>
       </c>
       <c r="BD299">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="BE299">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="BF299" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="BG299">
         <v>328954</v>
@@ -62676,16 +62256,16 @@
         <v>58805</v>
       </c>
       <c r="BJ299" t="s">
-        <v>936</v>
+        <v>880</v>
       </c>
       <c r="BK299" t="s">
-        <v>995</v>
+        <v>911</v>
       </c>
       <c r="BL299" t="s">
-        <v>1054</v>
+        <v>942</v>
       </c>
       <c r="BM299" t="s">
-        <v>1113</v>
+        <v>973</v>
       </c>
     </row>
     <row r="300" spans="1:65">
@@ -62705,64 +62285,64 @@
         <v>819</v>
       </c>
       <c r="F300">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G300">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H300">
         <v>14.5</v>
       </c>
       <c r="I300">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J300">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K300">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L300">
         <v>2.14</v>
       </c>
       <c r="M300">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="N300">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="O300">
         <v>1.87</v>
       </c>
       <c r="P300">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="Q300">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="R300">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="S300">
-        <v>1.76</v>
+        <v>1000</v>
       </c>
       <c r="T300">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U300">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V300">
         <v>1.01</v>
       </c>
       <c r="W300">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="X300">
         <v>1.01</v>
       </c>
       <c r="Y300">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="Z300">
         <v>1.01</v>
@@ -62771,37 +62351,37 @@
         <v>1000</v>
       </c>
       <c r="AB300">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC300">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD300">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE300">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF300">
         <v>1.01</v>
       </c>
       <c r="AG300">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AH300">
         <v>1.01</v>
       </c>
       <c r="AI300">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ300">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AK300">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL300">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AM300">
         <v>14</v>
@@ -62810,43 +62390,43 @@
         <v>1.01</v>
       </c>
       <c r="AO300">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AP300">
         <v>1.01</v>
       </c>
       <c r="AQ300">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AR300">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AS300">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AT300">
         <v>11.5</v>
       </c>
       <c r="AU300">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AV300">
         <v>1.01</v>
       </c>
       <c r="AW300">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AX300">
         <v>1.01</v>
       </c>
       <c r="AY300">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AZ300">
         <v>1.01</v>
       </c>
       <c r="BA300">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="BB300">
         <v>1.01</v>
@@ -62855,13 +62435,13 @@
         <v>1000</v>
       </c>
       <c r="BD300">
-        <v>48</v>
+        <v>12.5</v>
       </c>
       <c r="BE300">
         <v>1000</v>
       </c>
       <c r="BF300" t="s">
-        <v>878</v>
+        <v>850</v>
       </c>
       <c r="BG300">
         <v>328197</v>
@@ -62873,16 +62453,16 @@
         <v>58805</v>
       </c>
       <c r="BJ300" t="s">
-        <v>937</v>
+        <v>881</v>
       </c>
       <c r="BK300" t="s">
-        <v>996</v>
+        <v>912</v>
       </c>
       <c r="BL300" t="s">
-        <v>1055</v>
+        <v>943</v>
       </c>
       <c r="BM300" t="s">
-        <v>1114</v>
+        <v>974</v>
       </c>
     </row>
     <row r="301" spans="1:65">
@@ -62902,163 +62482,163 @@
         <v>820</v>
       </c>
       <c r="F301">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G301">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H301">
         <v>3.15</v>
       </c>
       <c r="I301">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J301">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K301">
         <v>3.35</v>
       </c>
       <c r="L301">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M301">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="N301">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="O301">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="P301">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="Q301">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R301">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S301">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="T301">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="U301">
         <v>12</v>
       </c>
       <c r="V301">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="W301">
         <v>13</v>
       </c>
       <c r="X301">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y301">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z301">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AA301">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB301">
         <v>7.2</v>
       </c>
       <c r="AC301">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD301">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AE301">
         <v>8.800000000000001</v>
       </c>
       <c r="AF301">
-        <v>3.7</v>
+        <v>10.5</v>
       </c>
       <c r="AG301">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH301">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AI301">
         <v>55</v>
       </c>
       <c r="AJ301">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK301">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL301">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM301">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN301">
-        <v>3.95</v>
+        <v>15.5</v>
       </c>
       <c r="AO301">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP301">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AQ301">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AR301">
+        <v>4</v>
+      </c>
+      <c r="AS301">
+        <v>46</v>
+      </c>
+      <c r="AT301">
+        <v>4.8</v>
+      </c>
+      <c r="AU301">
+        <v>40</v>
+      </c>
+      <c r="AV301">
+        <v>4</v>
+      </c>
+      <c r="AW301">
+        <v>70</v>
+      </c>
+      <c r="AX301">
+        <v>4.1</v>
+      </c>
+      <c r="AY301">
+        <v>190</v>
+      </c>
+      <c r="AZ301">
+        <v>3.85</v>
+      </c>
+      <c r="BA301">
+        <v>40</v>
+      </c>
+      <c r="BB301">
+        <v>4</v>
+      </c>
+      <c r="BC301">
+        <v>65</v>
+      </c>
+      <c r="BD301">
         <v>4.2</v>
       </c>
-      <c r="AS301">
-        <v>44</v>
-      </c>
-      <c r="AT301">
-        <v>4.2</v>
-      </c>
-      <c r="AU301">
-        <v>38</v>
-      </c>
-      <c r="AV301">
-        <v>4.4</v>
-      </c>
-      <c r="AW301">
-        <v>65</v>
-      </c>
-      <c r="AX301">
-        <v>4.6</v>
-      </c>
-      <c r="AY301">
-        <v>170</v>
-      </c>
-      <c r="AZ301">
-        <v>4.1</v>
-      </c>
-      <c r="BA301">
-        <v>36</v>
-      </c>
-      <c r="BB301">
-        <v>4.3</v>
-      </c>
-      <c r="BC301">
-        <v>60</v>
-      </c>
-      <c r="BD301">
-        <v>4.7</v>
-      </c>
       <c r="BE301">
         <v>1000</v>
       </c>
       <c r="BF301" t="s">
-        <v>879</v>
+        <v>851</v>
       </c>
       <c r="BG301">
         <v>10932747</v>
@@ -63070,16 +62650,16 @@
         <v>58805</v>
       </c>
       <c r="BJ301" t="s">
-        <v>938</v>
+        <v>882</v>
       </c>
       <c r="BK301" t="s">
-        <v>997</v>
+        <v>913</v>
       </c>
       <c r="BL301" t="s">
-        <v>1056</v>
+        <v>944</v>
       </c>
       <c r="BM301" t="s">
-        <v>1115</v>
+        <v>975</v>
       </c>
     </row>
     <row r="302" spans="1:65">
@@ -63099,34 +62679,34 @@
         <v>821</v>
       </c>
       <c r="F302">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="G302">
-        <v>2.14</v>
+        <v>480</v>
       </c>
       <c r="H302">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I302">
         <v>1000</v>
       </c>
       <c r="J302">
-        <v>3.25</v>
+        <v>1.2</v>
       </c>
       <c r="K302">
         <v>3.9</v>
       </c>
       <c r="L302">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="M302">
-        <v>2.68</v>
+        <v>2.08</v>
       </c>
       <c r="N302">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="O302">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="P302">
         <v>1.01</v>
@@ -63141,7 +62721,7 @@
         <v>1000</v>
       </c>
       <c r="T302">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="U302">
         <v>1000</v>
@@ -63249,13 +62829,13 @@
         <v>1000</v>
       </c>
       <c r="BD302">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="BE302">
         <v>1000</v>
       </c>
       <c r="BF302" t="s">
-        <v>880</v>
+        <v>852</v>
       </c>
       <c r="BG302">
         <v>10160867</v>
@@ -63267,16 +62847,16 @@
         <v>58805</v>
       </c>
       <c r="BJ302" t="s">
-        <v>939</v>
+        <v>883</v>
       </c>
       <c r="BK302" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="BL302" t="s">
-        <v>1057</v>
+        <v>945</v>
       </c>
       <c r="BM302" t="s">
-        <v>1116</v>
+        <v>976</v>
       </c>
     </row>
     <row r="303" spans="1:65">
@@ -63296,7 +62876,7 @@
         <v>822</v>
       </c>
       <c r="F303">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G303">
         <v>1.38</v>
@@ -63305,118 +62885,118 @@
         <v>11</v>
       </c>
       <c r="I303">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J303">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K303">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L303">
         <v>2.06</v>
       </c>
       <c r="M303">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="N303">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O303">
         <v>1.93</v>
       </c>
       <c r="P303">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="Q303">
-        <v>2.78</v>
+        <v>1000</v>
       </c>
       <c r="R303">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="S303">
-        <v>1.9</v>
+        <v>1000</v>
       </c>
       <c r="T303">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="U303">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="V303">
         <v>1.01</v>
       </c>
       <c r="W303">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="X303">
         <v>1.01</v>
       </c>
       <c r="Y303">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Z303">
         <v>1.01</v>
       </c>
       <c r="AA303">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AB303">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AC303">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD303">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AE303">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF303">
         <v>1.01</v>
       </c>
       <c r="AG303">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AH303">
         <v>1.01</v>
       </c>
       <c r="AI303">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AJ303">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AK303">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL303">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AM303">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN303">
         <v>1.01</v>
       </c>
       <c r="AO303">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AP303">
         <v>1.01</v>
       </c>
       <c r="AQ303">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AR303">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AS303">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AT303">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AU303">
         <v>19.5</v>
@@ -63425,34 +63005,34 @@
         <v>1.01</v>
       </c>
       <c r="AW303">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AX303">
         <v>1.01</v>
       </c>
       <c r="AY303">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AZ303">
         <v>1.01</v>
       </c>
       <c r="BA303">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BB303">
         <v>1.01</v>
       </c>
       <c r="BC303">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="BD303">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="BE303">
         <v>1000</v>
       </c>
       <c r="BF303" t="s">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="BG303">
         <v>22018255</v>
@@ -63464,16 +63044,16 @@
         <v>58805</v>
       </c>
       <c r="BJ303" t="s">
-        <v>940</v>
+        <v>884</v>
       </c>
       <c r="BK303" t="s">
-        <v>999</v>
+        <v>915</v>
       </c>
       <c r="BL303" t="s">
-        <v>1058</v>
+        <v>946</v>
       </c>
       <c r="BM303" t="s">
-        <v>1117</v>
+        <v>977</v>
       </c>
     </row>
     <row r="304" spans="1:65">
@@ -63502,10 +63082,10 @@
         <v>6.4</v>
       </c>
       <c r="I304">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J304">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K304">
         <v>4.5</v>
@@ -63514,7 +63094,7 @@
         <v>2.04</v>
       </c>
       <c r="M304">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="N304">
         <v>1.92</v>
@@ -63535,37 +63115,37 @@
         <v>2.02</v>
       </c>
       <c r="T304">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U304">
         <v>15.5</v>
       </c>
       <c r="V304">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W304">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X304">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="Y304">
         <v>65</v>
       </c>
       <c r="Z304">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AA304">
         <v>220</v>
       </c>
       <c r="AB304">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC304">
         <v>8.6</v>
       </c>
       <c r="AD304">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AE304">
         <v>10</v>
@@ -63574,22 +63154,22 @@
         <v>22</v>
       </c>
       <c r="AG304">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AH304">
-        <v>7.4</v>
+        <v>75</v>
       </c>
       <c r="AI304">
         <v>120</v>
       </c>
       <c r="AJ304">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AK304">
         <v>9.6</v>
       </c>
       <c r="AL304">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM304">
         <v>10.5</v>
@@ -63598,19 +63178,19 @@
         <v>19</v>
       </c>
       <c r="AO304">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP304">
-        <v>7.4</v>
+        <v>70</v>
       </c>
       <c r="AQ304">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AR304">
         <v>13</v>
       </c>
       <c r="AS304">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT304">
         <v>15</v>
@@ -63622,34 +63202,34 @@
         <v>30</v>
       </c>
       <c r="AW304">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AX304">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY304">
+        <v>150</v>
+      </c>
+      <c r="AZ304">
         <v>7.6</v>
       </c>
-      <c r="AY304">
-        <v>170</v>
-      </c>
-      <c r="AZ304">
-        <v>4.4</v>
-      </c>
       <c r="BA304">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="BB304">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BC304">
         <v>150</v>
       </c>
       <c r="BD304">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BE304">
         <v>1000</v>
       </c>
       <c r="BF304" t="s">
-        <v>882</v>
+        <v>854</v>
       </c>
       <c r="BG304">
         <v>2362970</v>
@@ -63661,16 +63241,16 @@
         <v>58805</v>
       </c>
       <c r="BJ304" t="s">
-        <v>941</v>
+        <v>885</v>
       </c>
       <c r="BK304" t="s">
-        <v>1000</v>
+        <v>916</v>
       </c>
       <c r="BL304" t="s">
-        <v>1059</v>
+        <v>947</v>
       </c>
       <c r="BM304" t="s">
-        <v>1118</v>
+        <v>978</v>
       </c>
     </row>
     <row r="305" spans="1:65">
@@ -63690,31 +63270,31 @@
         <v>824</v>
       </c>
       <c r="F305">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="G305">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H305">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="I305">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J305">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K305">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L305">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="M305">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="N305">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="O305">
         <v>1.99</v>
@@ -63723,10 +63303,10 @@
         <v>1.74</v>
       </c>
       <c r="Q305">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R305">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S305">
         <v>2.36</v>
@@ -63738,28 +63318,28 @@
         <v>14</v>
       </c>
       <c r="V305">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="W305">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X305">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y305">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z305">
         <v>34</v>
       </c>
       <c r="AA305">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB305">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC305">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD305">
         <v>7.4</v>
@@ -63768,28 +63348,28 @@
         <v>8</v>
       </c>
       <c r="AF305">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG305">
         <v>12</v>
       </c>
       <c r="AH305">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI305">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ305">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK305">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL305">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM305">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN305">
         <v>15.5</v>
@@ -63798,55 +63378,55 @@
         <v>17</v>
       </c>
       <c r="AP305">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AQ305">
         <v>40</v>
       </c>
       <c r="AR305">
+        <v>40</v>
+      </c>
+      <c r="AS305">
+        <v>46</v>
+      </c>
+      <c r="AT305">
+        <v>29</v>
+      </c>
+      <c r="AU305">
+        <v>32</v>
+      </c>
+      <c r="AV305">
         <v>38</v>
       </c>
-      <c r="AS305">
-        <v>44</v>
-      </c>
-      <c r="AT305">
-        <v>27</v>
-      </c>
-      <c r="AU305">
-        <v>29</v>
-      </c>
-      <c r="AV305">
-        <v>36</v>
-      </c>
       <c r="AW305">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AX305">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AY305">
         <v>85</v>
       </c>
       <c r="AZ305">
+        <v>23</v>
+      </c>
+      <c r="BA305">
+        <v>27</v>
+      </c>
+      <c r="BB305">
+        <v>19</v>
+      </c>
+      <c r="BC305">
         <v>21</v>
       </c>
-      <c r="BA305">
-        <v>25</v>
-      </c>
-      <c r="BB305">
-        <v>20</v>
-      </c>
-      <c r="BC305">
-        <v>23</v>
-      </c>
       <c r="BD305">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BE305">
         <v>980</v>
       </c>
       <c r="BF305" t="s">
-        <v>883</v>
+        <v>855</v>
       </c>
       <c r="BG305">
         <v>42741189</v>
@@ -63858,16 +63438,16 @@
         <v>58805</v>
       </c>
       <c r="BJ305" t="s">
-        <v>942</v>
+        <v>886</v>
       </c>
       <c r="BK305" t="s">
-        <v>1001</v>
+        <v>917</v>
       </c>
       <c r="BL305" t="s">
-        <v>1060</v>
+        <v>948</v>
       </c>
       <c r="BM305" t="s">
-        <v>1119</v>
+        <v>979</v>
       </c>
     </row>
     <row r="306" spans="1:65">
@@ -63887,13 +63467,13 @@
         <v>825</v>
       </c>
       <c r="F306">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G306">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H306">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I306">
         <v>6.8</v>
@@ -63902,7 +63482,7 @@
         <v>4.1</v>
       </c>
       <c r="K306">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L306">
         <v>2.06</v>
@@ -63917,7 +63497,7 @@
         <v>1.95</v>
       </c>
       <c r="P306">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q306">
         <v>2.06</v>
@@ -63926,10 +63506,10 @@
         <v>1.95</v>
       </c>
       <c r="S306">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T306">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U306">
         <v>15.5</v>
@@ -63941,10 +63521,10 @@
         <v>21</v>
       </c>
       <c r="X306">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y306">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z306">
         <v>44</v>
@@ -63953,7 +63533,7 @@
         <v>180</v>
       </c>
       <c r="AB306">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC306">
         <v>8.4</v>
@@ -63965,19 +63545,19 @@
         <v>9.6</v>
       </c>
       <c r="AF306">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG306">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH306">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI306">
         <v>90</v>
       </c>
       <c r="AJ306">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK306">
         <v>9.4</v>
@@ -63986,28 +63566,28 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AM306">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AN306">
         <v>20</v>
       </c>
       <c r="AO306">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP306">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AQ306">
         <v>90</v>
       </c>
       <c r="AR306">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AS306">
         <v>15.5</v>
       </c>
       <c r="AT306">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AU306">
         <v>17</v>
@@ -64016,13 +63596,13 @@
         <v>32</v>
       </c>
       <c r="AW306">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AX306">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AY306">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AZ306">
         <v>8.6</v>
@@ -64034,16 +63614,16 @@
         <v>40</v>
       </c>
       <c r="BC306">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BD306">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="BE306">
         <v>1000</v>
       </c>
       <c r="BF306" t="s">
-        <v>884</v>
+        <v>856</v>
       </c>
       <c r="BG306">
         <v>42741188</v>
@@ -64055,16 +63635,16 @@
         <v>58805</v>
       </c>
       <c r="BJ306" t="s">
-        <v>943</v>
+        <v>887</v>
       </c>
       <c r="BK306" t="s">
-        <v>1002</v>
+        <v>918</v>
       </c>
       <c r="BL306" t="s">
-        <v>1061</v>
+        <v>949</v>
       </c>
       <c r="BM306" t="s">
-        <v>1120</v>
+        <v>980</v>
       </c>
     </row>
     <row r="307" spans="1:65">
@@ -64087,7 +63667,7 @@
         <v>1.83</v>
       </c>
       <c r="G307">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H307">
         <v>4.8</v>
@@ -64102,31 +63682,31 @@
         <v>4</v>
       </c>
       <c r="L307">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="M307">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="N307">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="O307">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="P307">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="Q307">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R307">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="S307">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="T307">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U307">
         <v>15.5</v>
@@ -64135,7 +63715,7 @@
         <v>17</v>
       </c>
       <c r="W307">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="X307">
         <v>32</v>
@@ -64144,16 +63724,16 @@
         <v>38</v>
       </c>
       <c r="Z307">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AA307">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AB307">
         <v>8.4</v>
       </c>
       <c r="AC307">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD307">
         <v>8.199999999999999</v>
@@ -64162,19 +63742,19 @@
         <v>8.6</v>
       </c>
       <c r="AF307">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG307">
         <v>19</v>
       </c>
       <c r="AH307">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI307">
         <v>60</v>
       </c>
       <c r="AJ307">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK307">
         <v>11</v>
@@ -64192,7 +63772,7 @@
         <v>20</v>
       </c>
       <c r="AP307">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AQ307">
         <v>65</v>
@@ -64201,7 +63781,7 @@
         <v>17.5</v>
       </c>
       <c r="AS307">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AT307">
         <v>16.5</v>
@@ -64216,31 +63796,31 @@
         <v>34</v>
       </c>
       <c r="AX307">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AY307">
         <v>110</v>
       </c>
       <c r="AZ307">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BA307">
         <v>11.5</v>
       </c>
       <c r="BB307">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BC307">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BD307">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BE307">
         <v>1000</v>
       </c>
       <c r="BF307" t="s">
-        <v>885</v>
+        <v>857</v>
       </c>
       <c r="BG307">
         <v>9280784</v>
@@ -64252,16 +63832,16 @@
         <v>58805</v>
       </c>
       <c r="BJ307" t="s">
-        <v>944</v>
+        <v>888</v>
       </c>
       <c r="BK307" t="s">
-        <v>1003</v>
+        <v>919</v>
       </c>
       <c r="BL307" t="s">
-        <v>1062</v>
+        <v>950</v>
       </c>
       <c r="BM307" t="s">
-        <v>1121</v>
+        <v>981</v>
       </c>
     </row>
     <row r="308" spans="1:65">
@@ -64281,13 +63861,13 @@
         <v>827</v>
       </c>
       <c r="F308">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G308">
         <v>2.14</v>
       </c>
       <c r="H308">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I308">
         <v>3.8</v>
@@ -64299,52 +63879,52 @@
         <v>3.9</v>
       </c>
       <c r="L308">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="M308">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N308">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O308">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P308">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q308">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R308">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="S308">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T308">
         <v>14</v>
       </c>
       <c r="U308">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V308">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="W308">
         <v>15.5</v>
       </c>
       <c r="X308">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y308">
         <v>30</v>
       </c>
       <c r="Z308">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AA308">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB308">
         <v>9.800000000000001</v>
@@ -64356,7 +63936,7 @@
         <v>7.8</v>
       </c>
       <c r="AE308">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AF308">
         <v>13.5</v>
@@ -64365,16 +63945,16 @@
         <v>15.5</v>
       </c>
       <c r="AH308">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI308">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ308">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK308">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL308">
         <v>9.800000000000001</v>
@@ -64389,55 +63969,55 @@
         <v>17.5</v>
       </c>
       <c r="AP308">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AQ308">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AR308">
         <v>22</v>
       </c>
       <c r="AS308">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AT308">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AU308">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV308">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW308">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AX308">
         <v>34</v>
       </c>
       <c r="AY308">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AZ308">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BA308">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BB308">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC308">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BD308">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="BE308">
         <v>980</v>
       </c>
       <c r="BF308" t="s">
-        <v>886</v>
+        <v>858</v>
       </c>
       <c r="BG308">
         <v>436099</v>
@@ -64449,16 +64029,16 @@
         <v>58805</v>
       </c>
       <c r="BJ308" t="s">
-        <v>945</v>
+        <v>889</v>
       </c>
       <c r="BK308" t="s">
-        <v>1004</v>
+        <v>920</v>
       </c>
       <c r="BL308" t="s">
-        <v>1063</v>
+        <v>951</v>
       </c>
       <c r="BM308" t="s">
-        <v>1122</v>
+        <v>982</v>
       </c>
     </row>
     <row r="309" spans="1:65">
@@ -64478,13 +64058,13 @@
         <v>828</v>
       </c>
       <c r="F309">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G309">
         <v>2.02</v>
       </c>
       <c r="H309">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I309">
         <v>4.8</v>
@@ -64493,37 +64073,37 @@
         <v>3.4</v>
       </c>
       <c r="K309">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L309">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M309">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N309">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="O309">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="P309">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="Q309">
-        <v>2.28</v>
+        <v>990</v>
       </c>
       <c r="R309">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="S309">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="T309">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="U309">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="V309">
         <v>11.5</v>
@@ -64532,22 +64112,22 @@
         <v>13</v>
       </c>
       <c r="X309">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y309">
         <v>32</v>
       </c>
       <c r="Z309">
-        <v>14.5</v>
+        <v>80</v>
       </c>
       <c r="AA309">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AB309">
         <v>6.6</v>
       </c>
       <c r="AC309">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD309">
         <v>7.2</v>
@@ -64556,28 +64136,28 @@
         <v>7.6</v>
       </c>
       <c r="AF309">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG309">
         <v>19.5</v>
       </c>
       <c r="AH309">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AI309">
         <v>80</v>
       </c>
       <c r="AJ309">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK309">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AL309">
         <v>10</v>
       </c>
       <c r="AM309">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN309">
         <v>22</v>
@@ -64586,31 +64166,31 @@
         <v>25</v>
       </c>
       <c r="AP309">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="AQ309">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR309">
         <v>21</v>
       </c>
       <c r="AS309">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT309">
         <v>23</v>
       </c>
       <c r="AU309">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV309">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AW309">
         <v>55</v>
       </c>
       <c r="AX309">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY309">
         <v>190</v>
@@ -64619,22 +64199,22 @@
         <v>18.5</v>
       </c>
       <c r="BA309">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB309">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="BC309">
         <v>120</v>
       </c>
       <c r="BD309">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BE309">
         <v>1000</v>
       </c>
       <c r="BF309" t="s">
-        <v>887</v>
+        <v>859</v>
       </c>
       <c r="BG309">
         <v>198126</v>
@@ -64646,16 +64226,16 @@
         <v>58805</v>
       </c>
       <c r="BJ309" t="s">
-        <v>946</v>
+        <v>890</v>
       </c>
       <c r="BK309" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="BL309" t="s">
-        <v>1064</v>
+        <v>952</v>
       </c>
       <c r="BM309" t="s">
-        <v>1123</v>
+        <v>983</v>
       </c>
     </row>
     <row r="310" spans="1:65">
@@ -64678,7 +64258,7 @@
         <v>2.02</v>
       </c>
       <c r="G310">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H310">
         <v>4.3</v>
@@ -64687,13 +64267,13 @@
         <v>4.6</v>
       </c>
       <c r="J310">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K310">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L310">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="M310">
         <v>1.81</v>
@@ -64708,7 +64288,7 @@
         <v>1.98</v>
       </c>
       <c r="Q310">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R310">
         <v>1.92</v>
@@ -64720,13 +64300,13 @@
         <v>10</v>
       </c>
       <c r="U310">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="V310">
         <v>12.5</v>
       </c>
       <c r="W310">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X310">
         <v>28</v>
@@ -64735,22 +64315,22 @@
         <v>32</v>
       </c>
       <c r="Z310">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA310">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB310">
         <v>7.4</v>
       </c>
       <c r="AC310">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD310">
         <v>7.2</v>
       </c>
       <c r="AE310">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF310">
         <v>16</v>
@@ -64762,7 +64342,7 @@
         <v>55</v>
       </c>
       <c r="AI310">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ310">
         <v>10.5</v>
@@ -64780,10 +64360,10 @@
         <v>19.5</v>
       </c>
       <c r="AO310">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP310">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ310">
         <v>80</v>
@@ -64801,37 +64381,37 @@
         <v>24</v>
       </c>
       <c r="AV310">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AW310">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AX310">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY310">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AZ310">
         <v>15.5</v>
       </c>
       <c r="BA310">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BB310">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="BC310">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="BD310">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="BE310">
         <v>1000</v>
       </c>
       <c r="BF310" t="s">
-        <v>888</v>
+        <v>860</v>
       </c>
       <c r="BG310">
         <v>198133</v>
@@ -64843,16 +64423,16 @@
         <v>58805</v>
       </c>
       <c r="BJ310" t="s">
-        <v>947</v>
+        <v>891</v>
       </c>
       <c r="BK310" t="s">
-        <v>1006</v>
+        <v>922</v>
       </c>
       <c r="BL310" t="s">
-        <v>1065</v>
+        <v>953</v>
       </c>
       <c r="BM310" t="s">
-        <v>1124</v>
+        <v>984</v>
       </c>
     </row>
     <row r="311" spans="1:65">
@@ -64875,16 +64455,16 @@
         <v>2.58</v>
       </c>
       <c r="G311">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="H311">
         <v>2.8</v>
       </c>
       <c r="I311">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J311">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K311">
         <v>3.8</v>
@@ -64902,133 +64482,133 @@
         <v>2.04</v>
       </c>
       <c r="P311">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="Q311">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="R311">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="S311">
-        <v>2.48</v>
+        <v>110</v>
       </c>
       <c r="T311">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="U311">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="V311">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="W311">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="X311">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="Y311">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z311">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="AA311">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB311">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AC311">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD311">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AE311">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AF311">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="AG311">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH311">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AI311">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ311">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AK311">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL311">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AM311">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AN311">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AO311">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AP311">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AQ311">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AR311">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="AS311">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AT311">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="AU311">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AV311">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AW311">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AX311">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="AY311">
         <v>1000</v>
       </c>
       <c r="AZ311">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="BA311">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="BB311">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="BC311">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="BD311">
-        <v>3.9</v>
+        <v>18.5</v>
       </c>
       <c r="BE311">
         <v>1000</v>
       </c>
       <c r="BF311" t="s">
-        <v>889</v>
+        <v>861</v>
       </c>
       <c r="BG311">
         <v>5271441</v>
@@ -65040,16 +64620,16 @@
         <v>58805</v>
       </c>
       <c r="BJ311" t="s">
-        <v>948</v>
+        <v>892</v>
       </c>
       <c r="BK311" t="s">
-        <v>1007</v>
+        <v>923</v>
       </c>
       <c r="BL311" t="s">
-        <v>1066</v>
+        <v>954</v>
       </c>
       <c r="BM311" t="s">
-        <v>1125</v>
+        <v>985</v>
       </c>
     </row>
     <row r="312" spans="1:65">
@@ -65069,25 +64649,25 @@
         <v>831</v>
       </c>
       <c r="F312">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="G312">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H312">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I312">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J312">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K312">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L312">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="M312">
         <v>2.02</v>
@@ -65096,109 +64676,109 @@
         <v>1.98</v>
       </c>
       <c r="O312">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="P312">
         <v>1.77</v>
       </c>
       <c r="Q312">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R312">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S312">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T312">
         <v>10.5</v>
       </c>
       <c r="U312">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="V312">
         <v>9.6</v>
       </c>
       <c r="W312">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="X312">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="Y312">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z312">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA312">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB312">
         <v>9.199999999999999</v>
       </c>
       <c r="AC312">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD312">
         <v>6.6</v>
       </c>
       <c r="AE312">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AF312">
         <v>10.5</v>
       </c>
       <c r="AG312">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH312">
         <v>1.01</v>
       </c>
       <c r="AI312">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ312">
         <v>14</v>
       </c>
       <c r="AK312">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL312">
         <v>10</v>
       </c>
       <c r="AM312">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AN312">
         <v>14.5</v>
       </c>
       <c r="AO312">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AP312">
         <v>1.01</v>
       </c>
       <c r="AQ312">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AR312">
         <v>1.01</v>
       </c>
       <c r="AS312">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AT312">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AU312">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AV312">
         <v>1.01</v>
       </c>
       <c r="AW312">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AX312">
         <v>1.01</v>
@@ -65210,22 +64790,22 @@
         <v>1.01</v>
       </c>
       <c r="BA312">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="BB312">
         <v>1.01</v>
       </c>
       <c r="BC312">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="BD312">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BE312">
         <v>1000</v>
       </c>
       <c r="BF312" t="s">
-        <v>890</v>
+        <v>862</v>
       </c>
       <c r="BG312">
         <v>59242105</v>
@@ -65237,16 +64817,16 @@
         <v>58805</v>
       </c>
       <c r="BJ312" t="s">
-        <v>949</v>
+        <v>893</v>
       </c>
       <c r="BK312" t="s">
-        <v>1008</v>
+        <v>924</v>
       </c>
       <c r="BL312" t="s">
-        <v>1067</v>
+        <v>955</v>
       </c>
       <c r="BM312" t="s">
-        <v>1126</v>
+        <v>986</v>
       </c>
     </row>
     <row r="313" spans="1:65">
@@ -65266,10 +64846,10 @@
         <v>832</v>
       </c>
       <c r="F313">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G313">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H313">
         <v>3.1</v>
@@ -65278,34 +64858,34 @@
         <v>3.25</v>
       </c>
       <c r="J313">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K313">
         <v>3.95</v>
       </c>
       <c r="L313">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="M313">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="N313">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O313">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="P313">
+        <v>1.63</v>
+      </c>
+      <c r="Q313">
         <v>1.65</v>
       </c>
-      <c r="Q313">
-        <v>1.67</v>
-      </c>
       <c r="R313">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="S313">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T313">
         <v>16</v>
@@ -65317,13 +64897,13 @@
         <v>14</v>
       </c>
       <c r="W313">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X313">
         <v>21</v>
       </c>
       <c r="Y313">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z313">
         <v>46</v>
@@ -65347,19 +64927,19 @@
         <v>12.5</v>
       </c>
       <c r="AG313">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH313">
         <v>29</v>
       </c>
       <c r="AI313">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ313">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK313">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL313">
         <v>10</v>
@@ -65371,28 +64951,28 @@
         <v>14.5</v>
       </c>
       <c r="AO313">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP313">
         <v>34</v>
       </c>
       <c r="AQ313">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AR313">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS313">
         <v>32</v>
       </c>
       <c r="AT313">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AU313">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV313">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW313">
         <v>32</v>
@@ -65404,25 +64984,25 @@
         <v>75</v>
       </c>
       <c r="AZ313">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA313">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB313">
         <v>21</v>
       </c>
       <c r="BC313">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD313">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="BE313">
         <v>980</v>
       </c>
       <c r="BF313" t="s">
-        <v>891</v>
+        <v>863</v>
       </c>
       <c r="BG313">
         <v>171912</v>
@@ -65434,16 +65014,16 @@
         <v>58805</v>
       </c>
       <c r="BJ313" t="s">
-        <v>950</v>
+        <v>894</v>
       </c>
       <c r="BK313" t="s">
-        <v>1009</v>
+        <v>925</v>
       </c>
       <c r="BL313" t="s">
-        <v>1068</v>
+        <v>956</v>
       </c>
       <c r="BM313" t="s">
-        <v>1127</v>
+        <v>987</v>
       </c>
     </row>
     <row r="314" spans="1:65">
@@ -65463,16 +65043,16 @@
         <v>833</v>
       </c>
       <c r="F314">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G314">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H314">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I314">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J314">
         <v>3.55</v>
@@ -65481,145 +65061,145 @@
         <v>3.85</v>
       </c>
       <c r="L314">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="M314">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="N314">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O314">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="P314">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q314">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R314">
         <v>2.16</v>
       </c>
       <c r="S314">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T314">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U314">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V314">
         <v>12</v>
       </c>
       <c r="W314">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="X314">
-        <v>4.7</v>
+        <v>21</v>
       </c>
       <c r="Y314">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Z314">
-        <v>5.2</v>
+        <v>50</v>
       </c>
       <c r="AA314">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB314">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC314">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD314">
         <v>7.4</v>
       </c>
       <c r="AE314">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AF314">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG314">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH314">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AI314">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ314">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK314">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL314">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM314">
         <v>11.5</v>
       </c>
       <c r="AN314">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO314">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AP314">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="AQ314">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR314">
-        <v>4.7</v>
+        <v>25</v>
       </c>
       <c r="AS314">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AT314">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AU314">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AV314">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AW314">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AX314">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="AY314">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AZ314">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="BA314">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="BB314">
-        <v>4.9</v>
+        <v>9.4</v>
       </c>
       <c r="BC314">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="BD314">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="BE314">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="BF314" t="s">
-        <v>892</v>
+        <v>864</v>
       </c>
       <c r="BG314">
         <v>7533070</v>
@@ -65631,16 +65211,16 @@
         <v>58805</v>
       </c>
       <c r="BJ314" t="s">
-        <v>951</v>
+        <v>895</v>
       </c>
       <c r="BK314" t="s">
-        <v>1010</v>
+        <v>926</v>
       </c>
       <c r="BL314" t="s">
-        <v>1069</v>
+        <v>957</v>
       </c>
       <c r="BM314" t="s">
-        <v>1128</v>
+        <v>988</v>
       </c>
     </row>
     <row r="315" spans="1:65">
@@ -65666,157 +65246,157 @@
         <v>3.4</v>
       </c>
       <c r="H315">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I315">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J315">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K315">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L315">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="M315">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="N315">
+        <v>2.2</v>
+      </c>
+      <c r="O315">
         <v>2.28</v>
       </c>
-      <c r="O315">
-        <v>2.36</v>
-      </c>
       <c r="P315">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="Q315">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R315">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S315">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="T315">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="U315">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="V315">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="W315">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="X315">
         <v>13</v>
       </c>
       <c r="Y315">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z315">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="AA315">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AB315">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC315">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD315">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE315">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AF315">
         <v>10.5</v>
       </c>
       <c r="AG315">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH315">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="AI315">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AJ315">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK315">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL315">
         <v>13</v>
       </c>
       <c r="AM315">
+        <v>14.5</v>
+      </c>
+      <c r="AN315">
         <v>17.5</v>
       </c>
-      <c r="AN315">
-        <v>18</v>
-      </c>
       <c r="AO315">
+        <v>20</v>
+      </c>
+      <c r="AP315">
+        <v>40</v>
+      </c>
+      <c r="AQ315">
+        <v>48</v>
+      </c>
+      <c r="AR315">
+        <v>50</v>
+      </c>
+      <c r="AS315">
+        <v>60</v>
+      </c>
+      <c r="AT315">
+        <v>36</v>
+      </c>
+      <c r="AU315">
+        <v>42</v>
+      </c>
+      <c r="AV315">
+        <v>50</v>
+      </c>
+      <c r="AW315">
+        <v>60</v>
+      </c>
+      <c r="AX315">
+        <v>13</v>
+      </c>
+      <c r="AY315">
+        <v>130</v>
+      </c>
+      <c r="AZ315">
         <v>25</v>
       </c>
-      <c r="AP315">
-        <v>4.1</v>
-      </c>
-      <c r="AQ315">
-        <v>60</v>
-      </c>
-      <c r="AR315">
-        <v>4.2</v>
-      </c>
-      <c r="AS315">
-        <v>75</v>
-      </c>
-      <c r="AT315">
-        <v>4.1</v>
-      </c>
-      <c r="AU315">
-        <v>55</v>
-      </c>
-      <c r="AV315">
-        <v>4.2</v>
-      </c>
-      <c r="AW315">
-        <v>75</v>
-      </c>
-      <c r="AX315">
-        <v>4.3</v>
-      </c>
-      <c r="AY315">
-        <v>160</v>
-      </c>
-      <c r="AZ315">
-        <v>4.1</v>
-      </c>
       <c r="BA315">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="BB315">
-        <v>3.95</v>
+        <v>18.5</v>
       </c>
       <c r="BC315">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BD315">
-        <v>4.4</v>
+        <v>14</v>
       </c>
       <c r="BE315">
         <v>1000</v>
       </c>
       <c r="BF315" t="s">
-        <v>893</v>
+        <v>865</v>
       </c>
       <c r="BG315">
         <v>2937353</v>
@@ -65828,16 +65408,16 @@
         <v>58805</v>
       </c>
       <c r="BJ315" t="s">
-        <v>952</v>
+        <v>896</v>
       </c>
       <c r="BK315" t="s">
-        <v>1011</v>
+        <v>927</v>
       </c>
       <c r="BL315" t="s">
-        <v>1070</v>
+        <v>958</v>
       </c>
       <c r="BM315" t="s">
-        <v>1129</v>
+        <v>989</v>
       </c>
     </row>
     <row r="316" spans="1:65">
@@ -65857,31 +65437,31 @@
         <v>835</v>
       </c>
       <c r="F316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G316">
         <v>1000</v>
       </c>
       <c r="H316">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="I316">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="J316">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K316">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="L316">
         <v>1.27</v>
       </c>
       <c r="M316">
-        <v>1.93</v>
+        <v>980</v>
       </c>
       <c r="N316">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="O316">
         <v>4.6</v>
@@ -66007,13 +65587,13 @@
         <v>1000</v>
       </c>
       <c r="BD316">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="BE316">
         <v>1000</v>
       </c>
       <c r="BF316" t="s">
-        <v>894</v>
+        <v>866</v>
       </c>
       <c r="BG316">
         <v>7587321</v>
@@ -66025,16 +65605,16 @@
         <v>58805</v>
       </c>
       <c r="BJ316" t="s">
-        <v>953</v>
+        <v>897</v>
       </c>
       <c r="BK316" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="BL316" t="s">
-        <v>1071</v>
+        <v>959</v>
       </c>
       <c r="BM316" t="s">
-        <v>1130</v>
+        <v>990</v>
       </c>
     </row>
     <row r="317" spans="1:65">
@@ -66054,13 +65634,13 @@
         <v>836</v>
       </c>
       <c r="F317">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G317">
         <v>1.86</v>
       </c>
       <c r="H317">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I317">
         <v>4.7</v>
@@ -66069,91 +65649,91 @@
         <v>4</v>
       </c>
       <c r="K317">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L317">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M317">
         <v>2.4</v>
       </c>
       <c r="N317">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O317">
         <v>1.83</v>
       </c>
       <c r="P317">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="Q317">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="R317">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="S317">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="T317">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="U317">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V317">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="W317">
         <v>21</v>
       </c>
       <c r="X317">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y317">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Z317">
-        <v>5.7</v>
+        <v>2.26</v>
       </c>
       <c r="AA317">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB317">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC317">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD317">
         <v>8</v>
       </c>
       <c r="AE317">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AF317">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG317">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH317">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="AI317">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ317">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK317">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL317">
         <v>9</v>
       </c>
       <c r="AM317">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN317">
         <v>15</v>
@@ -66162,55 +65742,55 @@
         <v>23</v>
       </c>
       <c r="AP317">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="AQ317">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AR317">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AS317">
         <v>24</v>
       </c>
       <c r="AT317">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AU317">
         <v>22</v>
       </c>
       <c r="AV317">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="AW317">
         <v>38</v>
       </c>
       <c r="AX317">
-        <v>5.7</v>
+        <v>2.26</v>
       </c>
       <c r="AY317">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AZ317">
-        <v>4</v>
+        <v>2.26</v>
       </c>
       <c r="BA317">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BB317">
-        <v>5.3</v>
+        <v>2.26</v>
       </c>
       <c r="BC317">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="BD317">
-        <v>5.8</v>
+        <v>2.26</v>
       </c>
       <c r="BE317">
         <v>1000</v>
       </c>
       <c r="BF317" t="s">
-        <v>895</v>
+        <v>867</v>
       </c>
       <c r="BG317">
         <v>328952</v>
@@ -66222,16 +65802,16 @@
         <v>58805</v>
       </c>
       <c r="BJ317" t="s">
-        <v>954</v>
+        <v>898</v>
       </c>
       <c r="BK317" t="s">
-        <v>1013</v>
+        <v>929</v>
       </c>
       <c r="BL317" t="s">
-        <v>1072</v>
+        <v>960</v>
       </c>
       <c r="BM317" t="s">
-        <v>1131</v>
+        <v>991</v>
       </c>
     </row>
     <row r="318" spans="1:65">
@@ -66251,163 +65831,163 @@
         <v>837</v>
       </c>
       <c r="F318">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G318">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H318">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="I318">
+        <v>1000</v>
+      </c>
+      <c r="J318">
+        <v>3.4</v>
+      </c>
+      <c r="K318">
+        <v>4.5</v>
+      </c>
+      <c r="L318">
+        <v>1.65</v>
+      </c>
+      <c r="M318">
+        <v>2.12</v>
+      </c>
+      <c r="N318">
+        <v>1.9</v>
+      </c>
+      <c r="O318">
+        <v>2.54</v>
+      </c>
+      <c r="P318">
+        <v>1.88</v>
+      </c>
+      <c r="Q318">
+        <v>1000</v>
+      </c>
+      <c r="R318">
+        <v>1.42</v>
+      </c>
+      <c r="S318">
+        <v>1000</v>
+      </c>
+      <c r="T318">
+        <v>1.13</v>
+      </c>
+      <c r="U318">
+        <v>12.5</v>
+      </c>
+      <c r="V318">
+        <v>1.13</v>
+      </c>
+      <c r="W318">
+        <v>1000</v>
+      </c>
+      <c r="X318">
+        <v>1.07</v>
+      </c>
+      <c r="Y318">
+        <v>1000</v>
+      </c>
+      <c r="Z318">
+        <v>1.07</v>
+      </c>
+      <c r="AA318">
+        <v>1000</v>
+      </c>
+      <c r="AB318">
+        <v>1.13</v>
+      </c>
+      <c r="AC318">
         <v>7.8</v>
       </c>
-      <c r="J318">
-        <v>3.75</v>
-      </c>
-      <c r="K318">
-        <v>4.1</v>
-      </c>
-      <c r="L318">
-        <v>1.68</v>
-      </c>
-      <c r="M318">
-        <v>1.84</v>
-      </c>
-      <c r="N318">
-        <v>2.18</v>
-      </c>
-      <c r="O318">
-        <v>2.48</v>
-      </c>
-      <c r="P318">
-        <v>2.26</v>
-      </c>
-      <c r="Q318">
-        <v>2.74</v>
-      </c>
-      <c r="R318">
-        <v>1.7</v>
-      </c>
-      <c r="S318">
-        <v>1.97</v>
-      </c>
-      <c r="T318">
-        <v>3.65</v>
-      </c>
-      <c r="U318">
-        <v>13</v>
-      </c>
-      <c r="V318">
-        <v>4.1</v>
-      </c>
-      <c r="W318">
-        <v>23</v>
-      </c>
-      <c r="X318">
-        <v>4.7</v>
-      </c>
-      <c r="Y318">
-        <v>70</v>
-      </c>
-      <c r="Z318">
-        <v>4.9</v>
-      </c>
-      <c r="AA318">
-        <v>300</v>
-      </c>
-      <c r="AB318">
-        <v>5.9</v>
-      </c>
-      <c r="AC318">
-        <v>6.8</v>
-      </c>
       <c r="AD318">
-        <v>3.45</v>
+        <v>1.13</v>
       </c>
       <c r="AE318">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF318">
-        <v>4.4</v>
+        <v>1.07</v>
       </c>
       <c r="AG318">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH318">
-        <v>4.9</v>
+        <v>1.07</v>
       </c>
       <c r="AI318">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ318">
-        <v>7.4</v>
+        <v>1.13</v>
       </c>
       <c r="AK318">
         <v>10</v>
       </c>
       <c r="AL318">
-        <v>3.65</v>
+        <v>1.13</v>
       </c>
       <c r="AM318">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN318">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="AO318">
         <v>36</v>
       </c>
       <c r="AP318">
-        <v>4.9</v>
+        <v>1.07</v>
       </c>
       <c r="AQ318">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AR318">
-        <v>3.95</v>
+        <v>1.07</v>
       </c>
       <c r="AS318">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AT318">
-        <v>4.2</v>
+        <v>1.08</v>
       </c>
       <c r="AU318">
         <v>25</v>
       </c>
       <c r="AV318">
-        <v>4.7</v>
+        <v>1.07</v>
       </c>
       <c r="AW318">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AX318">
-        <v>4.9</v>
+        <v>1.07</v>
       </c>
       <c r="AY318">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AZ318">
-        <v>3.75</v>
+        <v>1.13</v>
       </c>
       <c r="BA318">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BB318">
-        <v>4.9</v>
+        <v>1.13</v>
       </c>
       <c r="BC318">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="BD318">
-        <v>5</v>
+        <v>1.13</v>
       </c>
       <c r="BE318">
         <v>1000</v>
       </c>
       <c r="BF318" t="s">
-        <v>896</v>
+        <v>868</v>
       </c>
       <c r="BG318">
         <v>5284708</v>
@@ -66419,16 +65999,16 @@
         <v>58805</v>
       </c>
       <c r="BJ318" t="s">
-        <v>955</v>
+        <v>899</v>
       </c>
       <c r="BK318" t="s">
-        <v>1014</v>
+        <v>930</v>
       </c>
       <c r="BL318" t="s">
-        <v>1073</v>
+        <v>961</v>
       </c>
       <c r="BM318" t="s">
-        <v>1132</v>
+        <v>992</v>
       </c>
     </row>
     <row r="319" spans="1:65">
@@ -66448,61 +66028,61 @@
         <v>838</v>
       </c>
       <c r="F319">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="G319">
+        <v>2.04</v>
+      </c>
+      <c r="H319">
+        <v>4</v>
+      </c>
+      <c r="I319">
+        <v>4.1</v>
+      </c>
+      <c r="J319">
+        <v>3.8</v>
+      </c>
+      <c r="K319">
+        <v>3.9</v>
+      </c>
+      <c r="L319">
         <v>2.12</v>
       </c>
-      <c r="H319">
-        <v>3.65</v>
-      </c>
-      <c r="I319">
-        <v>3.75</v>
-      </c>
-      <c r="J319">
-        <v>3.85</v>
-      </c>
-      <c r="K319">
-        <v>3.95</v>
-      </c>
-      <c r="L319">
+      <c r="M319">
+        <v>2.18</v>
+      </c>
+      <c r="N319">
+        <v>1.84</v>
+      </c>
+      <c r="O319">
+        <v>1.88</v>
+      </c>
+      <c r="P319">
+        <v>1.43</v>
+      </c>
+      <c r="Q319">
+        <v>1.84</v>
+      </c>
+      <c r="R319">
         <v>2.2</v>
       </c>
-      <c r="M319">
-        <v>2.34</v>
-      </c>
-      <c r="N319">
-        <v>1.75</v>
-      </c>
-      <c r="O319">
-        <v>1.83</v>
-      </c>
-      <c r="P319">
-        <v>1.69</v>
-      </c>
-      <c r="Q319">
-        <v>1.75</v>
-      </c>
-      <c r="R319">
-        <v>2.32</v>
-      </c>
       <c r="S319">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="T319">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="U319">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="V319">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W319">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X319">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y319">
         <v>30</v>
@@ -66514,43 +66094,43 @@
         <v>75</v>
       </c>
       <c r="AB319">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC319">
         <v>11.5</v>
       </c>
       <c r="AD319">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE319">
         <v>8.6</v>
       </c>
       <c r="AF319">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG319">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH319">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI319">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ319">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK319">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL319">
         <v>9.800000000000001</v>
       </c>
       <c r="AM319">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN319">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO319">
         <v>17</v>
@@ -66559,31 +66139,31 @@
         <v>38</v>
       </c>
       <c r="AQ319">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AR319">
         <v>22</v>
       </c>
       <c r="AS319">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT319">
         <v>17.5</v>
       </c>
       <c r="AU319">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AV319">
         <v>28</v>
       </c>
       <c r="AW319">
+        <v>32</v>
+      </c>
+      <c r="AX319">
         <v>34</v>
       </c>
-      <c r="AX319">
-        <v>60</v>
-      </c>
       <c r="AY319">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AZ319">
         <v>11</v>
@@ -66595,16 +66175,16 @@
         <v>27</v>
       </c>
       <c r="BC319">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="BD319">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BE319">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF319" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="BG319">
         <v>1101610</v>
@@ -66616,16 +66196,16 @@
         <v>58805</v>
       </c>
       <c r="BJ319" t="s">
-        <v>956</v>
+        <v>900</v>
       </c>
       <c r="BK319" t="s">
-        <v>1015</v>
+        <v>931</v>
       </c>
       <c r="BL319" t="s">
-        <v>1074</v>
+        <v>962</v>
       </c>
       <c r="BM319" t="s">
-        <v>1133</v>
+        <v>993</v>
       </c>
     </row>
     <row r="320" spans="1:65">
@@ -66645,25 +66225,25 @@
         <v>839</v>
       </c>
       <c r="F320">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="G320">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="H320">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="I320">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J320">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K320">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L320">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="M320">
         <v>2</v>
@@ -66675,7 +66255,7 @@
         <v>2.08</v>
       </c>
       <c r="P320">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q320">
         <v>1.88</v>
@@ -66687,121 +66267,121 @@
         <v>2.28</v>
       </c>
       <c r="T320">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U320">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="V320">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="W320">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X320">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y320">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z320">
-        <v>4.9</v>
+        <v>60</v>
       </c>
       <c r="AA320">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB320">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC320">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD320">
         <v>7.4</v>
       </c>
       <c r="AE320">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AF320">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG320">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH320">
-        <v>4.7</v>
+        <v>40</v>
       </c>
       <c r="AI320">
         <v>42</v>
       </c>
       <c r="AJ320">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK320">
+        <v>14</v>
+      </c>
+      <c r="AL320">
+        <v>10</v>
+      </c>
+      <c r="AM320">
+        <v>11</v>
+      </c>
+      <c r="AN320">
+        <v>16.5</v>
+      </c>
+      <c r="AO320">
         <v>18.5</v>
       </c>
-      <c r="AL320">
-        <v>10.5</v>
-      </c>
-      <c r="AM320">
-        <v>14</v>
-      </c>
-      <c r="AN320">
-        <v>16</v>
-      </c>
-      <c r="AO320">
-        <v>22</v>
-      </c>
       <c r="AP320">
-        <v>4.8</v>
+        <v>46</v>
       </c>
       <c r="AQ320">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR320">
-        <v>4.6</v>
+        <v>25</v>
       </c>
       <c r="AS320">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AT320">
         <v>21</v>
       </c>
       <c r="AU320">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AV320">
-        <v>4.8</v>
+        <v>34</v>
       </c>
       <c r="AW320">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AX320">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="AY320">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AZ320">
-        <v>4.3</v>
+        <v>15.5</v>
       </c>
       <c r="BA320">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BB320">
-        <v>4.6</v>
+        <v>36</v>
       </c>
       <c r="BC320">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="BD320">
-        <v>5.2</v>
+        <v>17</v>
       </c>
       <c r="BE320">
         <v>1000</v>
       </c>
       <c r="BF320" t="s">
-        <v>898</v>
+        <v>870</v>
       </c>
       <c r="BG320">
         <v>408102</v>
@@ -66813,16 +66393,16 @@
         <v>58805</v>
       </c>
       <c r="BJ320" t="s">
-        <v>957</v>
+        <v>901</v>
       </c>
       <c r="BK320" t="s">
-        <v>1016</v>
+        <v>932</v>
       </c>
       <c r="BL320" t="s">
-        <v>1075</v>
+        <v>963</v>
       </c>
       <c r="BM320" t="s">
-        <v>1134</v>
+        <v>994</v>
       </c>
     </row>
     <row r="321" spans="1:65">
@@ -66842,13 +66422,13 @@
         <v>840</v>
       </c>
       <c r="F321">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G321">
         <v>2.12</v>
       </c>
       <c r="H321">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I321">
         <v>3.45</v>
@@ -66860,43 +66440,43 @@
         <v>4.4</v>
       </c>
       <c r="L321">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="M321">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="N321">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="O321">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="P321">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q321">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R321">
         <v>2.74</v>
       </c>
       <c r="S321">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T321">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U321">
         <v>26</v>
       </c>
       <c r="V321">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="W321">
         <v>21</v>
       </c>
       <c r="X321">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y321">
         <v>29</v>
@@ -66908,13 +66488,13 @@
         <v>60</v>
       </c>
       <c r="AB321">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC321">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD321">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE321">
         <v>10.5</v>
@@ -66926,13 +66506,13 @@
         <v>15</v>
       </c>
       <c r="AH321">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI321">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ321">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK321">
         <v>17</v>
@@ -66947,13 +66527,13 @@
         <v>14</v>
       </c>
       <c r="AO321">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP321">
         <v>30</v>
       </c>
       <c r="AQ321">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AR321">
         <v>25</v>
@@ -66971,34 +66551,34 @@
         <v>23</v>
       </c>
       <c r="AW321">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AX321">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AY321">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AZ321">
         <v>8.4</v>
       </c>
       <c r="BA321">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="BB321">
+        <v>18</v>
+      </c>
+      <c r="BC321">
+        <v>21</v>
+      </c>
+      <c r="BD321">
         <v>17</v>
       </c>
-      <c r="BC321">
-        <v>22</v>
-      </c>
-      <c r="BD321">
-        <v>12</v>
-      </c>
       <c r="BE321">
-        <v>980</v>
+        <v>350</v>
       </c>
       <c r="BF321" t="s">
-        <v>899</v>
+        <v>871</v>
       </c>
       <c r="BG321">
         <v>5383053</v>
@@ -67010,16 +66590,16 @@
         <v>58805</v>
       </c>
       <c r="BJ321" t="s">
-        <v>958</v>
+        <v>902</v>
       </c>
       <c r="BK321" t="s">
-        <v>1017</v>
+        <v>933</v>
       </c>
       <c r="BL321" t="s">
-        <v>1076</v>
+        <v>964</v>
       </c>
       <c r="BM321" t="s">
-        <v>1135</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-13.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="851">
   <si>
     <t>League</t>
   </si>
@@ -2539,463 +2539,28 @@
     <t>LA Galaxy</t>
   </si>
   <si>
-    <t>33157213</t>
-  </si>
-  <si>
-    <t>33172282</t>
-  </si>
-  <si>
-    <t>33175012</t>
-  </si>
-  <si>
-    <t>33082615</t>
-  </si>
-  <si>
-    <t>33082592</t>
-  </si>
-  <si>
-    <t>33177359</t>
-  </si>
-  <si>
-    <t>33181855</t>
-  </si>
-  <si>
-    <t>33177142</t>
-  </si>
-  <si>
-    <t>33155466</t>
-  </si>
-  <si>
-    <t>33174868</t>
-  </si>
-  <si>
-    <t>33180491</t>
-  </si>
-  <si>
-    <t>33185428</t>
-  </si>
-  <si>
-    <t>33172616</t>
-  </si>
-  <si>
-    <t>33157280</t>
-  </si>
-  <si>
-    <t>33157214</t>
-  </si>
-  <si>
-    <t>33157216</t>
-  </si>
-  <si>
-    <t>33157273</t>
-  </si>
-  <si>
-    <t>33157215</t>
-  </si>
-  <si>
-    <t>33082633</t>
-  </si>
-  <si>
-    <t>33082687</t>
-  </si>
-  <si>
-    <t>33177140</t>
-  </si>
-  <si>
-    <t>33181858</t>
-  </si>
-  <si>
-    <t>33176310</t>
-  </si>
-  <si>
-    <t>33157268</t>
-  </si>
-  <si>
-    <t>33157230</t>
-  </si>
-  <si>
-    <t>33177126</t>
-  </si>
-  <si>
-    <t>33155468</t>
-  </si>
-  <si>
-    <t>33174526</t>
-  </si>
-  <si>
-    <t>33157249</t>
-  </si>
-  <si>
     <t>33157237</t>
   </si>
   <si>
     <t>33157258</t>
   </si>
   <si>
-    <t>1.226979991</t>
-  </si>
-  <si>
-    <t>1.227252488</t>
-  </si>
-  <si>
-    <t>1.227308647</t>
-  </si>
-  <si>
-    <t>1.225754290</t>
-  </si>
-  <si>
-    <t>1.225753098</t>
-  </si>
-  <si>
-    <t>1.227353735</t>
-  </si>
-  <si>
-    <t>1.227424914</t>
-  </si>
-  <si>
-    <t>1.227350486</t>
-  </si>
-  <si>
-    <t>1.226946073</t>
-  </si>
-  <si>
-    <t>1.227308381</t>
-  </si>
-  <si>
-    <t>1.227409995</t>
-  </si>
-  <si>
-    <t>1.227476312</t>
-  </si>
-  <si>
-    <t>1.227264425</t>
-  </si>
-  <si>
-    <t>1.226986837</t>
-  </si>
-  <si>
-    <t>1.226979883</t>
-  </si>
-  <si>
-    <t>1.226979665</t>
-  </si>
-  <si>
-    <t>1.226980100</t>
-  </si>
-  <si>
-    <t>1.226979774</t>
-  </si>
-  <si>
-    <t>1.225754074</t>
-  </si>
-  <si>
-    <t>1.225755375</t>
-  </si>
-  <si>
-    <t>1.227350576</t>
-  </si>
-  <si>
-    <t>1.227425021</t>
-  </si>
-  <si>
-    <t>1.227344993</t>
-  </si>
-  <si>
-    <t>1.226980208</t>
-  </si>
-  <si>
-    <t>1.226979557</t>
-  </si>
-  <si>
-    <t>1.227350936</t>
-  </si>
-  <si>
-    <t>1.226945983</t>
-  </si>
-  <si>
-    <t>1.227303154</t>
-  </si>
-  <si>
-    <t>1.226980534</t>
-  </si>
-  <si>
     <t>1.226979449</t>
   </si>
   <si>
     <t>1.226980426</t>
   </si>
   <si>
-    <t>1.226980001</t>
-  </si>
-  <si>
-    <t>1.227252533</t>
-  </si>
-  <si>
-    <t>1.227308695</t>
-  </si>
-  <si>
-    <t>1.225754300</t>
-  </si>
-  <si>
-    <t>1.225753108</t>
-  </si>
-  <si>
-    <t>1.227353781</t>
-  </si>
-  <si>
-    <t>1.227424959</t>
-  </si>
-  <si>
-    <t>1.227350531</t>
-  </si>
-  <si>
-    <t>1.226946118</t>
-  </si>
-  <si>
-    <t>1.227308426</t>
-  </si>
-  <si>
-    <t>1.227410040</t>
-  </si>
-  <si>
-    <t>1.227476357</t>
-  </si>
-  <si>
-    <t>1.227264470</t>
-  </si>
-  <si>
-    <t>1.226986892</t>
-  </si>
-  <si>
-    <t>1.226979893</t>
-  </si>
-  <si>
-    <t>1.226979675</t>
-  </si>
-  <si>
-    <t>1.226980110</t>
-  </si>
-  <si>
-    <t>1.226979784</t>
-  </si>
-  <si>
-    <t>1.225754084</t>
-  </si>
-  <si>
-    <t>1.225755385</t>
-  </si>
-  <si>
-    <t>1.227350621</t>
-  </si>
-  <si>
-    <t>1.227425069</t>
-  </si>
-  <si>
-    <t>1.227345003</t>
-  </si>
-  <si>
-    <t>1.226980218</t>
-  </si>
-  <si>
-    <t>1.226979567</t>
-  </si>
-  <si>
-    <t>1.227350981</t>
-  </si>
-  <si>
-    <t>1.226946028</t>
-  </si>
-  <si>
-    <t>1.227303199</t>
-  </si>
-  <si>
-    <t>1.226980544</t>
-  </si>
-  <si>
     <t>1.226979459</t>
   </si>
   <si>
     <t>1.226980436</t>
   </si>
   <si>
-    <t>1.226979990</t>
-  </si>
-  <si>
-    <t>1.227252572</t>
-  </si>
-  <si>
-    <t>1.227308735</t>
-  </si>
-  <si>
-    <t>1.225754289</t>
-  </si>
-  <si>
-    <t>1.225753097</t>
-  </si>
-  <si>
-    <t>1.227353820</t>
-  </si>
-  <si>
-    <t>1.227424998</t>
-  </si>
-  <si>
-    <t>1.227350570</t>
-  </si>
-  <si>
-    <t>1.226946157</t>
-  </si>
-  <si>
-    <t>1.227308465</t>
-  </si>
-  <si>
-    <t>1.227410079</t>
-  </si>
-  <si>
-    <t>1.227476396</t>
-  </si>
-  <si>
-    <t>1.227264509</t>
-  </si>
-  <si>
-    <t>1.226986830</t>
-  </si>
-  <si>
-    <t>1.226979882</t>
-  </si>
-  <si>
-    <t>1.226979664</t>
-  </si>
-  <si>
-    <t>1.226980099</t>
-  </si>
-  <si>
-    <t>1.226979773</t>
-  </si>
-  <si>
-    <t>1.225754073</t>
-  </si>
-  <si>
-    <t>1.225755374</t>
-  </si>
-  <si>
-    <t>1.227350660</t>
-  </si>
-  <si>
-    <t>1.227425108</t>
-  </si>
-  <si>
-    <t>1.227344992</t>
-  </si>
-  <si>
-    <t>1.226980207</t>
-  </si>
-  <si>
-    <t>1.226979556</t>
-  </si>
-  <si>
-    <t>1.227351020</t>
-  </si>
-  <si>
-    <t>1.226946067</t>
-  </si>
-  <si>
-    <t>1.227303238</t>
-  </si>
-  <si>
-    <t>1.226980533</t>
-  </si>
-  <si>
     <t>1.226979448</t>
   </si>
   <si>
     <t>1.226980425</t>
-  </si>
-  <si>
-    <t>1.226980000</t>
-  </si>
-  <si>
-    <t>1.227252497</t>
-  </si>
-  <si>
-    <t>1.227308657</t>
-  </si>
-  <si>
-    <t>1.225754299</t>
-  </si>
-  <si>
-    <t>1.225753107</t>
-  </si>
-  <si>
-    <t>1.227353745</t>
-  </si>
-  <si>
-    <t>1.227424923</t>
-  </si>
-  <si>
-    <t>1.227350495</t>
-  </si>
-  <si>
-    <t>1.226946082</t>
-  </si>
-  <si>
-    <t>1.227308390</t>
-  </si>
-  <si>
-    <t>1.227410004</t>
-  </si>
-  <si>
-    <t>1.227476321</t>
-  </si>
-  <si>
-    <t>1.227264434</t>
-  </si>
-  <si>
-    <t>1.226986889</t>
-  </si>
-  <si>
-    <t>1.226979892</t>
-  </si>
-  <si>
-    <t>1.226979674</t>
-  </si>
-  <si>
-    <t>1.226980109</t>
-  </si>
-  <si>
-    <t>1.226979783</t>
-  </si>
-  <si>
-    <t>1.225754083</t>
-  </si>
-  <si>
-    <t>1.225755384</t>
-  </si>
-  <si>
-    <t>1.227350585</t>
-  </si>
-  <si>
-    <t>1.227425032</t>
-  </si>
-  <si>
-    <t>1.227345002</t>
-  </si>
-  <si>
-    <t>1.226980217</t>
-  </si>
-  <si>
-    <t>1.226979566</t>
-  </si>
-  <si>
-    <t>1.227350945</t>
-  </si>
-  <si>
-    <t>1.226945992</t>
-  </si>
-  <si>
-    <t>1.227303163</t>
-  </si>
-  <si>
-    <t>1.226980543</t>
   </si>
   <si>
     <t>1.226979458</t>
@@ -60667,8 +60232,8 @@
       <c r="BE291">
         <v>980</v>
       </c>
-      <c r="BF291" t="s">
-        <v>841</v>
+      <c r="BF291">
+        <v>33157213</v>
       </c>
       <c r="BG291">
         <v>4004854</v>
@@ -60679,17 +60244,17 @@
       <c r="BI291">
         <v>58805</v>
       </c>
-      <c r="BJ291" t="s">
-        <v>872</v>
-      </c>
-      <c r="BK291" t="s">
-        <v>903</v>
-      </c>
-      <c r="BL291" t="s">
-        <v>934</v>
-      </c>
-      <c r="BM291" t="s">
-        <v>965</v>
+      <c r="BJ291">
+        <v>1.226979991</v>
+      </c>
+      <c r="BK291">
+        <v>1.226980001</v>
+      </c>
+      <c r="BL291">
+        <v>1.22697999</v>
+      </c>
+      <c r="BM291">
+        <v>1.22698</v>
       </c>
     </row>
     <row r="292" spans="1:65">
@@ -60864,8 +60429,8 @@
       <c r="BE292">
         <v>1000</v>
       </c>
-      <c r="BF292" t="s">
-        <v>842</v>
+      <c r="BF292">
+        <v>33172282</v>
       </c>
       <c r="BG292">
         <v>4908158</v>
@@ -60876,17 +60441,17 @@
       <c r="BI292">
         <v>58805</v>
       </c>
-      <c r="BJ292" t="s">
-        <v>873</v>
-      </c>
-      <c r="BK292" t="s">
-        <v>904</v>
-      </c>
-      <c r="BL292" t="s">
-        <v>935</v>
-      </c>
-      <c r="BM292" t="s">
-        <v>966</v>
+      <c r="BJ292">
+        <v>1.227252488</v>
+      </c>
+      <c r="BK292">
+        <v>1.227252533</v>
+      </c>
+      <c r="BL292">
+        <v>1.227252572</v>
+      </c>
+      <c r="BM292">
+        <v>1.227252497</v>
       </c>
     </row>
     <row r="293" spans="1:65">
@@ -61061,8 +60626,8 @@
       <c r="BE293">
         <v>910</v>
       </c>
-      <c r="BF293" t="s">
-        <v>843</v>
+      <c r="BF293">
+        <v>33175012</v>
       </c>
       <c r="BG293">
         <v>1388376</v>
@@ -61073,17 +60638,17 @@
       <c r="BI293">
         <v>58805</v>
       </c>
-      <c r="BJ293" t="s">
-        <v>874</v>
-      </c>
-      <c r="BK293" t="s">
-        <v>905</v>
-      </c>
-      <c r="BL293" t="s">
-        <v>936</v>
-      </c>
-      <c r="BM293" t="s">
-        <v>967</v>
+      <c r="BJ293">
+        <v>1.227308647</v>
+      </c>
+      <c r="BK293">
+        <v>1.227308695</v>
+      </c>
+      <c r="BL293">
+        <v>1.227308735</v>
+      </c>
+      <c r="BM293">
+        <v>1.227308657</v>
       </c>
     </row>
     <row r="294" spans="1:65">
@@ -61258,8 +60823,8 @@
       <c r="BE294">
         <v>1000</v>
       </c>
-      <c r="BF294" t="s">
-        <v>844</v>
+      <c r="BF294">
+        <v>33082615</v>
       </c>
       <c r="BG294">
         <v>198137</v>
@@ -61270,17 +60835,17 @@
       <c r="BI294">
         <v>58805</v>
       </c>
-      <c r="BJ294" t="s">
-        <v>875</v>
-      </c>
-      <c r="BK294" t="s">
-        <v>906</v>
-      </c>
-      <c r="BL294" t="s">
-        <v>937</v>
-      </c>
-      <c r="BM294" t="s">
-        <v>968</v>
+      <c r="BJ294">
+        <v>1.22575429</v>
+      </c>
+      <c r="BK294">
+        <v>1.2257543</v>
+      </c>
+      <c r="BL294">
+        <v>1.225754289</v>
+      </c>
+      <c r="BM294">
+        <v>1.225754299</v>
       </c>
     </row>
     <row r="295" spans="1:65">
@@ -61455,8 +61020,8 @@
       <c r="BE295">
         <v>1000</v>
       </c>
-      <c r="BF295" t="s">
-        <v>845</v>
+      <c r="BF295">
+        <v>33082592</v>
       </c>
       <c r="BG295">
         <v>356589</v>
@@ -61467,17 +61032,17 @@
       <c r="BI295">
         <v>58805</v>
       </c>
-      <c r="BJ295" t="s">
-        <v>876</v>
-      </c>
-      <c r="BK295" t="s">
-        <v>907</v>
-      </c>
-      <c r="BL295" t="s">
-        <v>938</v>
-      </c>
-      <c r="BM295" t="s">
-        <v>969</v>
+      <c r="BJ295">
+        <v>1.225753098</v>
+      </c>
+      <c r="BK295">
+        <v>1.225753108</v>
+      </c>
+      <c r="BL295">
+        <v>1.225753097</v>
+      </c>
+      <c r="BM295">
+        <v>1.225753107</v>
       </c>
     </row>
     <row r="296" spans="1:65">
@@ -61652,8 +61217,8 @@
       <c r="BE296">
         <v>1000</v>
       </c>
-      <c r="BF296" t="s">
-        <v>846</v>
+      <c r="BF296">
+        <v>33177359</v>
       </c>
       <c r="BG296">
         <v>194507</v>
@@ -61664,17 +61229,17 @@
       <c r="BI296">
         <v>58805</v>
       </c>
-      <c r="BJ296" t="s">
-        <v>877</v>
-      </c>
-      <c r="BK296" t="s">
-        <v>908</v>
-      </c>
-      <c r="BL296" t="s">
-        <v>939</v>
-      </c>
-      <c r="BM296" t="s">
-        <v>970</v>
+      <c r="BJ296">
+        <v>1.227353735</v>
+      </c>
+      <c r="BK296">
+        <v>1.227353781</v>
+      </c>
+      <c r="BL296">
+        <v>1.22735382</v>
+      </c>
+      <c r="BM296">
+        <v>1.227353745</v>
       </c>
     </row>
     <row r="297" spans="1:65">
@@ -61849,8 +61414,8 @@
       <c r="BE297">
         <v>1000</v>
       </c>
-      <c r="BF297" t="s">
-        <v>847</v>
+      <c r="BF297">
+        <v>33181855</v>
       </c>
       <c r="BG297">
         <v>328699</v>
@@ -61861,17 +61426,17 @@
       <c r="BI297">
         <v>58805</v>
       </c>
-      <c r="BJ297" t="s">
-        <v>878</v>
-      </c>
-      <c r="BK297" t="s">
-        <v>909</v>
-      </c>
-      <c r="BL297" t="s">
-        <v>940</v>
-      </c>
-      <c r="BM297" t="s">
-        <v>971</v>
+      <c r="BJ297">
+        <v>1.227424914</v>
+      </c>
+      <c r="BK297">
+        <v>1.227424959</v>
+      </c>
+      <c r="BL297">
+        <v>1.227424998</v>
+      </c>
+      <c r="BM297">
+        <v>1.227424923</v>
       </c>
     </row>
     <row r="298" spans="1:65">
@@ -62046,8 +61611,8 @@
       <c r="BE298">
         <v>1000</v>
       </c>
-      <c r="BF298" t="s">
-        <v>848</v>
+      <c r="BF298">
+        <v>33177142</v>
       </c>
       <c r="BG298">
         <v>5839079</v>
@@ -62058,17 +61623,17 @@
       <c r="BI298">
         <v>58805</v>
       </c>
-      <c r="BJ298" t="s">
-        <v>879</v>
-      </c>
-      <c r="BK298" t="s">
-        <v>910</v>
-      </c>
-      <c r="BL298" t="s">
-        <v>941</v>
-      </c>
-      <c r="BM298" t="s">
-        <v>972</v>
+      <c r="BJ298">
+        <v>1.227350486</v>
+      </c>
+      <c r="BK298">
+        <v>1.227350531</v>
+      </c>
+      <c r="BL298">
+        <v>1.22735057</v>
+      </c>
+      <c r="BM298">
+        <v>1.227350495</v>
       </c>
     </row>
     <row r="299" spans="1:65">
@@ -62243,8 +61808,8 @@
       <c r="BE299">
         <v>720</v>
       </c>
-      <c r="BF299" t="s">
-        <v>849</v>
+      <c r="BF299">
+        <v>33155466</v>
       </c>
       <c r="BG299">
         <v>328954</v>
@@ -62255,17 +61820,17 @@
       <c r="BI299">
         <v>58805</v>
       </c>
-      <c r="BJ299" t="s">
-        <v>880</v>
-      </c>
-      <c r="BK299" t="s">
-        <v>911</v>
-      </c>
-      <c r="BL299" t="s">
-        <v>942</v>
-      </c>
-      <c r="BM299" t="s">
-        <v>973</v>
+      <c r="BJ299">
+        <v>1.226946073</v>
+      </c>
+      <c r="BK299">
+        <v>1.226946118</v>
+      </c>
+      <c r="BL299">
+        <v>1.226946157</v>
+      </c>
+      <c r="BM299">
+        <v>1.226946082</v>
       </c>
     </row>
     <row r="300" spans="1:65">
@@ -62440,8 +62005,8 @@
       <c r="BE300">
         <v>1000</v>
       </c>
-      <c r="BF300" t="s">
-        <v>850</v>
+      <c r="BF300">
+        <v>33174868</v>
       </c>
       <c r="BG300">
         <v>328197</v>
@@ -62452,17 +62017,17 @@
       <c r="BI300">
         <v>58805</v>
       </c>
-      <c r="BJ300" t="s">
-        <v>881</v>
-      </c>
-      <c r="BK300" t="s">
-        <v>912</v>
-      </c>
-      <c r="BL300" t="s">
-        <v>943</v>
-      </c>
-      <c r="BM300" t="s">
-        <v>974</v>
+      <c r="BJ300">
+        <v>1.227308381</v>
+      </c>
+      <c r="BK300">
+        <v>1.227308426</v>
+      </c>
+      <c r="BL300">
+        <v>1.227308465</v>
+      </c>
+      <c r="BM300">
+        <v>1.22730839</v>
       </c>
     </row>
     <row r="301" spans="1:65">
@@ -62637,8 +62202,8 @@
       <c r="BE301">
         <v>1000</v>
       </c>
-      <c r="BF301" t="s">
-        <v>851</v>
+      <c r="BF301">
+        <v>33180491</v>
       </c>
       <c r="BG301">
         <v>10932747</v>
@@ -62649,17 +62214,17 @@
       <c r="BI301">
         <v>58805</v>
       </c>
-      <c r="BJ301" t="s">
-        <v>882</v>
-      </c>
-      <c r="BK301" t="s">
-        <v>913</v>
-      </c>
-      <c r="BL301" t="s">
-        <v>944</v>
-      </c>
-      <c r="BM301" t="s">
-        <v>975</v>
+      <c r="BJ301">
+        <v>1.227409995</v>
+      </c>
+      <c r="BK301">
+        <v>1.22741004</v>
+      </c>
+      <c r="BL301">
+        <v>1.227410079</v>
+      </c>
+      <c r="BM301">
+        <v>1.227410004</v>
       </c>
     </row>
     <row r="302" spans="1:65">
@@ -62834,8 +62399,8 @@
       <c r="BE302">
         <v>1000</v>
       </c>
-      <c r="BF302" t="s">
-        <v>852</v>
+      <c r="BF302">
+        <v>33185428</v>
       </c>
       <c r="BG302">
         <v>10160867</v>
@@ -62846,17 +62411,17 @@
       <c r="BI302">
         <v>58805</v>
       </c>
-      <c r="BJ302" t="s">
-        <v>883</v>
-      </c>
-      <c r="BK302" t="s">
-        <v>914</v>
-      </c>
-      <c r="BL302" t="s">
-        <v>945</v>
-      </c>
-      <c r="BM302" t="s">
-        <v>976</v>
+      <c r="BJ302">
+        <v>1.227476312</v>
+      </c>
+      <c r="BK302">
+        <v>1.227476357</v>
+      </c>
+      <c r="BL302">
+        <v>1.227476396</v>
+      </c>
+      <c r="BM302">
+        <v>1.227476321</v>
       </c>
     </row>
     <row r="303" spans="1:65">
@@ -63031,8 +62596,8 @@
       <c r="BE303">
         <v>1000</v>
       </c>
-      <c r="BF303" t="s">
-        <v>853</v>
+      <c r="BF303">
+        <v>33172616</v>
       </c>
       <c r="BG303">
         <v>22018255</v>
@@ -63043,17 +62608,17 @@
       <c r="BI303">
         <v>58805</v>
       </c>
-      <c r="BJ303" t="s">
-        <v>884</v>
-      </c>
-      <c r="BK303" t="s">
-        <v>915</v>
-      </c>
-      <c r="BL303" t="s">
-        <v>946</v>
-      </c>
-      <c r="BM303" t="s">
-        <v>977</v>
+      <c r="BJ303">
+        <v>1.227264425</v>
+      </c>
+      <c r="BK303">
+        <v>1.22726447</v>
+      </c>
+      <c r="BL303">
+        <v>1.227264509</v>
+      </c>
+      <c r="BM303">
+        <v>1.227264434</v>
       </c>
     </row>
     <row r="304" spans="1:65">
@@ -63228,8 +62793,8 @@
       <c r="BE304">
         <v>1000</v>
       </c>
-      <c r="BF304" t="s">
-        <v>854</v>
+      <c r="BF304">
+        <v>33157280</v>
       </c>
       <c r="BG304">
         <v>2362970</v>
@@ -63240,17 +62805,17 @@
       <c r="BI304">
         <v>58805</v>
       </c>
-      <c r="BJ304" t="s">
-        <v>885</v>
-      </c>
-      <c r="BK304" t="s">
-        <v>916</v>
-      </c>
-      <c r="BL304" t="s">
-        <v>947</v>
-      </c>
-      <c r="BM304" t="s">
-        <v>978</v>
+      <c r="BJ304">
+        <v>1.226986837</v>
+      </c>
+      <c r="BK304">
+        <v>1.226986892</v>
+      </c>
+      <c r="BL304">
+        <v>1.22698683</v>
+      </c>
+      <c r="BM304">
+        <v>1.226986889</v>
       </c>
     </row>
     <row r="305" spans="1:65">
@@ -63425,8 +62990,8 @@
       <c r="BE305">
         <v>980</v>
       </c>
-      <c r="BF305" t="s">
-        <v>855</v>
+      <c r="BF305">
+        <v>33157214</v>
       </c>
       <c r="BG305">
         <v>42741189</v>
@@ -63437,17 +63002,17 @@
       <c r="BI305">
         <v>58805</v>
       </c>
-      <c r="BJ305" t="s">
-        <v>886</v>
-      </c>
-      <c r="BK305" t="s">
-        <v>917</v>
-      </c>
-      <c r="BL305" t="s">
-        <v>948</v>
-      </c>
-      <c r="BM305" t="s">
-        <v>979</v>
+      <c r="BJ305">
+        <v>1.226979883</v>
+      </c>
+      <c r="BK305">
+        <v>1.226979893</v>
+      </c>
+      <c r="BL305">
+        <v>1.226979882</v>
+      </c>
+      <c r="BM305">
+        <v>1.226979892</v>
       </c>
     </row>
     <row r="306" spans="1:65">
@@ -63622,8 +63187,8 @@
       <c r="BE306">
         <v>1000</v>
       </c>
-      <c r="BF306" t="s">
-        <v>856</v>
+      <c r="BF306">
+        <v>33157216</v>
       </c>
       <c r="BG306">
         <v>42741188</v>
@@ -63634,17 +63199,17 @@
       <c r="BI306">
         <v>58805</v>
       </c>
-      <c r="BJ306" t="s">
-        <v>887</v>
-      </c>
-      <c r="BK306" t="s">
-        <v>918</v>
-      </c>
-      <c r="BL306" t="s">
-        <v>949</v>
-      </c>
-      <c r="BM306" t="s">
-        <v>980</v>
+      <c r="BJ306">
+        <v>1.226979665</v>
+      </c>
+      <c r="BK306">
+        <v>1.226979675</v>
+      </c>
+      <c r="BL306">
+        <v>1.226979664</v>
+      </c>
+      <c r="BM306">
+        <v>1.226979674</v>
       </c>
     </row>
     <row r="307" spans="1:65">
@@ -63819,8 +63384,8 @@
       <c r="BE307">
         <v>1000</v>
       </c>
-      <c r="BF307" t="s">
-        <v>857</v>
+      <c r="BF307">
+        <v>33157273</v>
       </c>
       <c r="BG307">
         <v>9280784</v>
@@ -63831,17 +63396,17 @@
       <c r="BI307">
         <v>58805</v>
       </c>
-      <c r="BJ307" t="s">
-        <v>888</v>
-      </c>
-      <c r="BK307" t="s">
-        <v>919</v>
-      </c>
-      <c r="BL307" t="s">
-        <v>950</v>
-      </c>
-      <c r="BM307" t="s">
-        <v>981</v>
+      <c r="BJ307">
+        <v>1.2269801</v>
+      </c>
+      <c r="BK307">
+        <v>1.22698011</v>
+      </c>
+      <c r="BL307">
+        <v>1.226980099</v>
+      </c>
+      <c r="BM307">
+        <v>1.226980109</v>
       </c>
     </row>
     <row r="308" spans="1:65">
@@ -64016,8 +63581,8 @@
       <c r="BE308">
         <v>980</v>
       </c>
-      <c r="BF308" t="s">
-        <v>858</v>
+      <c r="BF308">
+        <v>33157215</v>
       </c>
       <c r="BG308">
         <v>436099</v>
@@ -64028,17 +63593,17 @@
       <c r="BI308">
         <v>58805</v>
       </c>
-      <c r="BJ308" t="s">
-        <v>889</v>
-      </c>
-      <c r="BK308" t="s">
-        <v>920</v>
-      </c>
-      <c r="BL308" t="s">
-        <v>951</v>
-      </c>
-      <c r="BM308" t="s">
-        <v>982</v>
+      <c r="BJ308">
+        <v>1.226979774</v>
+      </c>
+      <c r="BK308">
+        <v>1.226979784</v>
+      </c>
+      <c r="BL308">
+        <v>1.226979773</v>
+      </c>
+      <c r="BM308">
+        <v>1.226979783</v>
       </c>
     </row>
     <row r="309" spans="1:65">
@@ -64213,8 +63778,8 @@
       <c r="BE309">
         <v>1000</v>
       </c>
-      <c r="BF309" t="s">
-        <v>859</v>
+      <c r="BF309">
+        <v>33082633</v>
       </c>
       <c r="BG309">
         <v>198126</v>
@@ -64225,17 +63790,17 @@
       <c r="BI309">
         <v>58805</v>
       </c>
-      <c r="BJ309" t="s">
-        <v>890</v>
-      </c>
-      <c r="BK309" t="s">
-        <v>921</v>
-      </c>
-      <c r="BL309" t="s">
-        <v>952</v>
-      </c>
-      <c r="BM309" t="s">
-        <v>983</v>
+      <c r="BJ309">
+        <v>1.225754074</v>
+      </c>
+      <c r="BK309">
+        <v>1.225754084</v>
+      </c>
+      <c r="BL309">
+        <v>1.225754073</v>
+      </c>
+      <c r="BM309">
+        <v>1.225754083</v>
       </c>
     </row>
     <row r="310" spans="1:65">
@@ -64410,8 +63975,8 @@
       <c r="BE310">
         <v>1000</v>
       </c>
-      <c r="BF310" t="s">
-        <v>860</v>
+      <c r="BF310">
+        <v>33082687</v>
       </c>
       <c r="BG310">
         <v>198133</v>
@@ -64422,17 +63987,17 @@
       <c r="BI310">
         <v>58805</v>
       </c>
-      <c r="BJ310" t="s">
-        <v>891</v>
-      </c>
-      <c r="BK310" t="s">
-        <v>922</v>
-      </c>
-      <c r="BL310" t="s">
-        <v>953</v>
-      </c>
-      <c r="BM310" t="s">
-        <v>984</v>
+      <c r="BJ310">
+        <v>1.225755375</v>
+      </c>
+      <c r="BK310">
+        <v>1.225755385</v>
+      </c>
+      <c r="BL310">
+        <v>1.225755374</v>
+      </c>
+      <c r="BM310">
+        <v>1.225755384</v>
       </c>
     </row>
     <row r="311" spans="1:65">
@@ -64607,8 +64172,8 @@
       <c r="BE311">
         <v>1000</v>
       </c>
-      <c r="BF311" t="s">
-        <v>861</v>
+      <c r="BF311">
+        <v>33177140</v>
       </c>
       <c r="BG311">
         <v>5271441</v>
@@ -64619,17 +64184,17 @@
       <c r="BI311">
         <v>58805</v>
       </c>
-      <c r="BJ311" t="s">
-        <v>892</v>
-      </c>
-      <c r="BK311" t="s">
-        <v>923</v>
-      </c>
-      <c r="BL311" t="s">
-        <v>954</v>
-      </c>
-      <c r="BM311" t="s">
-        <v>985</v>
+      <c r="BJ311">
+        <v>1.227350576</v>
+      </c>
+      <c r="BK311">
+        <v>1.227350621</v>
+      </c>
+      <c r="BL311">
+        <v>1.22735066</v>
+      </c>
+      <c r="BM311">
+        <v>1.227350585</v>
       </c>
     </row>
     <row r="312" spans="1:65">
@@ -64804,8 +64369,8 @@
       <c r="BE312">
         <v>1000</v>
       </c>
-      <c r="BF312" t="s">
-        <v>862</v>
+      <c r="BF312">
+        <v>33181858</v>
       </c>
       <c r="BG312">
         <v>59242105</v>
@@ -64816,17 +64381,17 @@
       <c r="BI312">
         <v>58805</v>
       </c>
-      <c r="BJ312" t="s">
-        <v>893</v>
-      </c>
-      <c r="BK312" t="s">
-        <v>924</v>
-      </c>
-      <c r="BL312" t="s">
-        <v>955</v>
-      </c>
-      <c r="BM312" t="s">
-        <v>986</v>
+      <c r="BJ312">
+        <v>1.227425021</v>
+      </c>
+      <c r="BK312">
+        <v>1.227425069</v>
+      </c>
+      <c r="BL312">
+        <v>1.227425108</v>
+      </c>
+      <c r="BM312">
+        <v>1.227425032</v>
       </c>
     </row>
     <row r="313" spans="1:65">
@@ -65001,8 +64566,8 @@
       <c r="BE313">
         <v>980</v>
       </c>
-      <c r="BF313" t="s">
-        <v>863</v>
+      <c r="BF313">
+        <v>33176310</v>
       </c>
       <c r="BG313">
         <v>171912</v>
@@ -65013,17 +64578,17 @@
       <c r="BI313">
         <v>58805</v>
       </c>
-      <c r="BJ313" t="s">
-        <v>894</v>
-      </c>
-      <c r="BK313" t="s">
-        <v>925</v>
-      </c>
-      <c r="BL313" t="s">
-        <v>956</v>
-      </c>
-      <c r="BM313" t="s">
-        <v>987</v>
+      <c r="BJ313">
+        <v>1.227344993</v>
+      </c>
+      <c r="BK313">
+        <v>1.227345003</v>
+      </c>
+      <c r="BL313">
+        <v>1.227344992</v>
+      </c>
+      <c r="BM313">
+        <v>1.227345002</v>
       </c>
     </row>
     <row r="314" spans="1:65">
@@ -65198,8 +64763,8 @@
       <c r="BE314">
         <v>820</v>
       </c>
-      <c r="BF314" t="s">
-        <v>864</v>
+      <c r="BF314">
+        <v>33157268</v>
       </c>
       <c r="BG314">
         <v>7533070</v>
@@ -65210,17 +64775,17 @@
       <c r="BI314">
         <v>58805</v>
       </c>
-      <c r="BJ314" t="s">
-        <v>895</v>
-      </c>
-      <c r="BK314" t="s">
-        <v>926</v>
-      </c>
-      <c r="BL314" t="s">
-        <v>957</v>
-      </c>
-      <c r="BM314" t="s">
-        <v>988</v>
+      <c r="BJ314">
+        <v>1.226980208</v>
+      </c>
+      <c r="BK314">
+        <v>1.226980218</v>
+      </c>
+      <c r="BL314">
+        <v>1.226980207</v>
+      </c>
+      <c r="BM314">
+        <v>1.226980217</v>
       </c>
     </row>
     <row r="315" spans="1:65">
@@ -65395,8 +64960,8 @@
       <c r="BE315">
         <v>1000</v>
       </c>
-      <c r="BF315" t="s">
-        <v>865</v>
+      <c r="BF315">
+        <v>33157230</v>
       </c>
       <c r="BG315">
         <v>2937353</v>
@@ -65407,17 +64972,17 @@
       <c r="BI315">
         <v>58805</v>
       </c>
-      <c r="BJ315" t="s">
-        <v>896</v>
-      </c>
-      <c r="BK315" t="s">
-        <v>927</v>
-      </c>
-      <c r="BL315" t="s">
-        <v>958</v>
-      </c>
-      <c r="BM315" t="s">
-        <v>989</v>
+      <c r="BJ315">
+        <v>1.226979557</v>
+      </c>
+      <c r="BK315">
+        <v>1.226979567</v>
+      </c>
+      <c r="BL315">
+        <v>1.226979556</v>
+      </c>
+      <c r="BM315">
+        <v>1.226979566</v>
       </c>
     </row>
     <row r="316" spans="1:65">
@@ -65592,8 +65157,8 @@
       <c r="BE316">
         <v>1000</v>
       </c>
-      <c r="BF316" t="s">
-        <v>866</v>
+      <c r="BF316">
+        <v>33177126</v>
       </c>
       <c r="BG316">
         <v>7587321</v>
@@ -65604,17 +65169,17 @@
       <c r="BI316">
         <v>58805</v>
       </c>
-      <c r="BJ316" t="s">
-        <v>897</v>
-      </c>
-      <c r="BK316" t="s">
-        <v>928</v>
-      </c>
-      <c r="BL316" t="s">
-        <v>959</v>
-      </c>
-      <c r="BM316" t="s">
-        <v>990</v>
+      <c r="BJ316">
+        <v>1.227350936</v>
+      </c>
+      <c r="BK316">
+        <v>1.227350981</v>
+      </c>
+      <c r="BL316">
+        <v>1.22735102</v>
+      </c>
+      <c r="BM316">
+        <v>1.227350945</v>
       </c>
     </row>
     <row r="317" spans="1:65">
@@ -65789,8 +65354,8 @@
       <c r="BE317">
         <v>1000</v>
       </c>
-      <c r="BF317" t="s">
-        <v>867</v>
+      <c r="BF317">
+        <v>33155468</v>
       </c>
       <c r="BG317">
         <v>328952</v>
@@ -65801,17 +65366,17 @@
       <c r="BI317">
         <v>58805</v>
       </c>
-      <c r="BJ317" t="s">
-        <v>898</v>
-      </c>
-      <c r="BK317" t="s">
-        <v>929</v>
-      </c>
-      <c r="BL317" t="s">
-        <v>960</v>
-      </c>
-      <c r="BM317" t="s">
-        <v>991</v>
+      <c r="BJ317">
+        <v>1.226945983</v>
+      </c>
+      <c r="BK317">
+        <v>1.226946028</v>
+      </c>
+      <c r="BL317">
+        <v>1.226946067</v>
+      </c>
+      <c r="BM317">
+        <v>1.226945992</v>
       </c>
     </row>
     <row r="318" spans="1:65">
@@ -65986,8 +65551,8 @@
       <c r="BE318">
         <v>1000</v>
       </c>
-      <c r="BF318" t="s">
-        <v>868</v>
+      <c r="BF318">
+        <v>33174526</v>
       </c>
       <c r="BG318">
         <v>5284708</v>
@@ -65998,17 +65563,17 @@
       <c r="BI318">
         <v>58805</v>
       </c>
-      <c r="BJ318" t="s">
-        <v>899</v>
-      </c>
-      <c r="BK318" t="s">
-        <v>930</v>
-      </c>
-      <c r="BL318" t="s">
-        <v>961</v>
-      </c>
-      <c r="BM318" t="s">
-        <v>992</v>
+      <c r="BJ318">
+        <v>1.227303154</v>
+      </c>
+      <c r="BK318">
+        <v>1.227303199</v>
+      </c>
+      <c r="BL318">
+        <v>1.227303238</v>
+      </c>
+      <c r="BM318">
+        <v>1.227303163</v>
       </c>
     </row>
     <row r="319" spans="1:65">
@@ -66183,8 +65748,8 @@
       <c r="BE319">
         <v>1000</v>
       </c>
-      <c r="BF319" t="s">
-        <v>869</v>
+      <c r="BF319">
+        <v>33157249</v>
       </c>
       <c r="BG319">
         <v>1101610</v>
@@ -66195,17 +65760,17 @@
       <c r="BI319">
         <v>58805</v>
       </c>
-      <c r="BJ319" t="s">
-        <v>900</v>
-      </c>
-      <c r="BK319" t="s">
-        <v>931</v>
-      </c>
-      <c r="BL319" t="s">
-        <v>962</v>
-      </c>
-      <c r="BM319" t="s">
-        <v>993</v>
+      <c r="BJ319">
+        <v>1.226980534</v>
+      </c>
+      <c r="BK319">
+        <v>1.226980544</v>
+      </c>
+      <c r="BL319">
+        <v>1.226980533</v>
+      </c>
+      <c r="BM319">
+        <v>1.226980543</v>
       </c>
     </row>
     <row r="320" spans="1:65">
@@ -66225,19 +65790,19 @@
         <v>839</v>
       </c>
       <c r="F320">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G320">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H320">
+        <v>3.6</v>
+      </c>
+      <c r="I320">
         <v>3.7</v>
       </c>
-      <c r="I320">
-        <v>3.75</v>
-      </c>
       <c r="J320">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K320">
         <v>3.6</v>
@@ -66246,16 +65811,16 @@
         <v>1.94</v>
       </c>
       <c r="M320">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N320">
         <v>2</v>
       </c>
       <c r="O320">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="P320">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q320">
         <v>1.88</v>
@@ -66264,7 +65829,7 @@
         <v>2.14</v>
       </c>
       <c r="S320">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T320">
         <v>12</v>
@@ -66282,7 +65847,7 @@
         <v>23</v>
       </c>
       <c r="Y320">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z320">
         <v>60</v>
@@ -66303,16 +65868,16 @@
         <v>8</v>
       </c>
       <c r="AF320">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG320">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH320">
         <v>40</v>
       </c>
       <c r="AI320">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ320">
         <v>12.5</v>
@@ -66333,7 +65898,7 @@
         <v>18.5</v>
       </c>
       <c r="AP320">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AQ320">
         <v>55</v>
@@ -66372,16 +65937,16 @@
         <v>36</v>
       </c>
       <c r="BC320">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BD320">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="BE320">
         <v>1000</v>
       </c>
       <c r="BF320" t="s">
-        <v>870</v>
+        <v>841</v>
       </c>
       <c r="BG320">
         <v>408102</v>
@@ -66393,16 +65958,16 @@
         <v>58805</v>
       </c>
       <c r="BJ320" t="s">
-        <v>901</v>
+        <v>843</v>
       </c>
       <c r="BK320" t="s">
-        <v>932</v>
+        <v>845</v>
       </c>
       <c r="BL320" t="s">
-        <v>963</v>
+        <v>847</v>
       </c>
       <c r="BM320" t="s">
-        <v>994</v>
+        <v>849</v>
       </c>
     </row>
     <row r="321" spans="1:65">
@@ -66422,10 +65987,10 @@
         <v>840</v>
       </c>
       <c r="F321">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G321">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H321">
         <v>3.4</v>
@@ -66434,37 +65999,37 @@
         <v>3.45</v>
       </c>
       <c r="J321">
+        <v>4.1</v>
+      </c>
+      <c r="K321">
         <v>4.2</v>
       </c>
-      <c r="K321">
-        <v>4.4</v>
-      </c>
       <c r="L321">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="M321">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="N321">
         <v>1.54</v>
       </c>
       <c r="O321">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P321">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q321">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R321">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="S321">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="T321">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U321">
         <v>26</v>
@@ -66494,7 +66059,7 @@
         <v>16</v>
       </c>
       <c r="AD321">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE321">
         <v>10.5</v>
@@ -66503,16 +66068,16 @@
         <v>13.5</v>
       </c>
       <c r="AG321">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH321">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI321">
         <v>32</v>
       </c>
       <c r="AJ321">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK321">
         <v>17</v>
@@ -66524,7 +66089,7 @@
         <v>11</v>
       </c>
       <c r="AN321">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO321">
         <v>14.5</v>
@@ -66539,7 +66104,7 @@
         <v>25</v>
       </c>
       <c r="AS321">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT321">
         <v>17</v>
@@ -66551,34 +66116,34 @@
         <v>23</v>
       </c>
       <c r="AW321">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX321">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AY321">
         <v>55</v>
       </c>
       <c r="AZ321">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA321">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB321">
         <v>18</v>
       </c>
       <c r="BC321">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD321">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BE321">
-        <v>350</v>
+        <v>980</v>
       </c>
       <c r="BF321" t="s">
-        <v>871</v>
+        <v>842</v>
       </c>
       <c r="BG321">
         <v>5383053</v>
@@ -66590,16 +66155,16 @@
         <v>58805</v>
       </c>
       <c r="BJ321" t="s">
-        <v>902</v>
+        <v>844</v>
       </c>
       <c r="BK321" t="s">
-        <v>933</v>
+        <v>846</v>
       </c>
       <c r="BL321" t="s">
-        <v>964</v>
+        <v>848</v>
       </c>
       <c r="BM321" t="s">
-        <v>995</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
